--- a/CourseCardSystem/CourseCardConfig.xlsx
+++ b/CourseCardSystem/CourseCardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6296F8-836E-3A48-BCE8-1B4F0CEBFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB97289-78E2-3841-87E8-49E4349984BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="1" xr2:uid="{6C6A59C2-E5F3-564E-983B-2E3820069D8D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{6C6A59C2-E5F3-564E-983B-2E3820069D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Prefab_1</t>
   </si>
   <si>
-    <t>(3.84,-70.8),(3.8,-78.6)</t>
-  </si>
-  <si>
     <t>Tee</t>
   </si>
   <si>
@@ -191,6 +188,36 @@
   </si>
   <si>
     <t>HF_01 传奇弹球场</t>
+  </si>
+  <si>
+    <t>(2624.183,3225),(2676.892,-3310),(2752.17,3376.429),(2766.528,3475.393),(2711.455,3558.861),(2642.72,3631.495),(2673.899,3726.51),(2713.537,3818.319),(2676.623,3911.256),(2623.082,3995.715),(2631.497,4047.165)</t>
+  </si>
+  <si>
+    <t>Prefab_2</t>
+  </si>
+  <si>
+    <t>Prefab_3</t>
+  </si>
+  <si>
+    <t>Prefab_4</t>
+  </si>
+  <si>
+    <t>Prefab_5</t>
+  </si>
+  <si>
+    <t>Prefab_6</t>
+  </si>
+  <si>
+    <t>Prefab_7</t>
+  </si>
+  <si>
+    <t>Prefab_8</t>
+  </si>
+  <si>
+    <t>Prefab_9</t>
+  </si>
+  <si>
+    <t>Prefab_10</t>
   </si>
 </sst>
 </file>
@@ -560,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBADF6AA-A769-8B4E-B384-C6CB873D2906}">
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="F1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,10 +814,10 @@
         <v>11</v>
       </c>
       <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
         <v>45</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
       </c>
       <c r="AJ2" t="s">
         <v>15</v>
@@ -878,16 +905,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA0DC5-CA54-3548-8686-BC6612E545C0}">
-  <dimension ref="A1:BL3"/>
+  <dimension ref="A1:BL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="16" max="16" width="37.1640625" customWidth="1"/>
+    <col min="16" max="16" width="108.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.2">
@@ -1139,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1157,19 +1184,314 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>10001</v>
-      </c>
-      <c r="I3">
-        <v>20001</v>
+        <v>1001</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1002</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1003</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1004</v>
+      </c>
+      <c r="I6">
+        <v>1011</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1005</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1006</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1007</v>
+      </c>
+      <c r="I9">
+        <v>1012</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1008</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>1009</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>1010</v>
+      </c>
+      <c r="I12">
+        <v>1013</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1179,7 +1501,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1511,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -1205,27 +1527,63 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>2582.4</v>
+      </c>
+      <c r="C3">
+        <v>3018.4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>2582.4</v>
+      </c>
+      <c r="C4">
+        <v>2952.9</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>2582.4</v>
+      </c>
+      <c r="C5">
+        <v>2893</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2582.4</v>
+      </c>
+      <c r="C6">
+        <v>2813.3</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1239,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088CB78E-0BA0-634E-9F96-1BB5C7259F62}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1699,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1363,37 +1721,493 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
         <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
       <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" t="s">
-        <v>49</v>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>-1</v>
+      </c>
+      <c r="O5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>-2</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>-2</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>-2</v>
+      </c>
+      <c r="O9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>-2</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>-2</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>-2</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>-2</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>-2</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>-3</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>-3</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>-3</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>-3</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>-3</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>-3</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>-3</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>-3</v>
+      </c>
+      <c r="O13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>-3</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>-3</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>-3</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>-3</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>-3</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>-3</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>-3</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>-3</v>
+      </c>
+      <c r="O15">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/CourseCardSystem/CourseCardConfig.xlsx
+++ b/CourseCardSystem/CourseCardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB97289-78E2-3841-87E8-49E4349984BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B1290-B0F3-6247-8FD4-49574A254767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{6C6A59C2-E5F3-564E-983B-2E3820069D8D}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="3" xr2:uid="{6C6A59C2-E5F3-564E-983B-2E3820069D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBADF6AA-A769-8B4E-B384-C6CB873D2906}">
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CourseCardSystem/CourseCardConfig.xlsx
+++ b/CourseCardSystem/CourseCardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B1290-B0F3-6247-8FD4-49574A254767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A274A-43A1-0149-906A-DDE61361B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="3" xr2:uid="{6C6A59C2-E5F3-564E-983B-2E3820069D8D}"/>
+    <workbookView xWindow="100" yWindow="-19680" windowWidth="30240" windowHeight="17600" activeTab="3" xr2:uid="{6C6A59C2-E5F3-564E-983B-2E3820069D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -151,9 +151,6 @@
     <t>star</t>
   </si>
   <si>
-    <t>evaluation_rule_index_start</t>
-  </si>
-  <si>
     <t>card_name_lighthouse</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Prefab_10</t>
+  </si>
+  <si>
+    <t>camera_height</t>
   </si>
 </sst>
 </file>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBADF6AA-A769-8B4E-B384-C6CB873D2906}">
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="Q1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,10 +606,9 @@
     <col min="23" max="23" width="12" customWidth="1"/>
     <col min="33" max="33" width="14.33203125" customWidth="1"/>
     <col min="34" max="34" width="43.6640625" customWidth="1"/>
-    <col min="38" max="38" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -751,17 +750,8 @@
       <c r="AU1">
         <v>47</v>
       </c>
-      <c r="AV1">
-        <v>48</v>
-      </c>
-      <c r="AW1">
-        <v>49</v>
-      </c>
-      <c r="AX1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -814,39 +804,33 @@
         <v>11</v>
       </c>
       <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
         <v>44</v>
       </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -887,14 +871,8 @@
       <c r="S3">
         <v>3</v>
       </c>
-      <c r="AJ3">
-        <v>3.84</v>
-      </c>
-      <c r="AK3">
-        <v>-70.8</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
+      <c r="U3">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +886,7 @@
   <dimension ref="A1:BL12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,10 +1165,10 @@
         <v>1001</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.2">
@@ -1219,10 +1197,10 @@
         <v>1002</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.2">
@@ -1251,10 +1229,10 @@
         <v>1003</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.2">
@@ -1286,10 +1264,10 @@
         <v>1011</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.2">
@@ -1318,10 +1296,10 @@
         <v>1005</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.2">
@@ -1350,10 +1328,10 @@
         <v>1006</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
@@ -1385,10 +1363,10 @@
         <v>1012</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.2">
@@ -1417,10 +1395,10 @@
         <v>1008</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.2">
@@ -1449,10 +1427,10 @@
         <v>1009</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.2">
@@ -1484,10 +1462,10 @@
         <v>1013</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1479,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -1527,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1600,7 +1578,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1677,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1721,37 +1699,37 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
         <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
       <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
         <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">

--- a/CourseCardSystem/CourseCardConfig.xlsx
+++ b/CourseCardSystem/CourseCardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A274A-43A1-0149-906A-DDE61361B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3441AA0-75E5-BA48-9327-42354CD01672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="-19680" windowWidth="30240" windowHeight="17600" activeTab="3" xr2:uid="{6C6A59C2-E5F3-564E-983B-2E3820069D8D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="cardstageinfo1" sheetId="3" r:id="rId3"/>
     <sheet name="evalulation_rule" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CourseCardSystem/CourseCardConfig.xlsx
+++ b/CourseCardSystem/CourseCardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -67,10 +67,10 @@
     <t>flag_bounce</t>
   </si>
   <si>
-    <t>card_stage_infos_RowStartIndex</t>
+    <t>ability_RowStartIndex</t>
   </si>
   <si>
-    <t>ability_RowStartIndex</t>
+    <t>card_stage_infos_RowStartIndex</t>
   </si>
   <si>
     <t>camera_height</t>
@@ -86,6 +86,30 @@
   </si>
   <si>
     <t>atlas_sceneminimap</t>
+  </si>
+  <si>
+    <t>card_name_tide</t>
+  </si>
+  <si>
+    <t>game_S1_1004n</t>
+  </si>
+  <si>
+    <t>card_name_beijing</t>
+  </si>
+  <si>
+    <t>game_S1_1008n</t>
+  </si>
+  <si>
+    <t>card_name_track</t>
+  </si>
+  <si>
+    <t>game_S1_1005n</t>
+  </si>
+  <si>
+    <t>Icon_hole_286</t>
+  </si>
+  <si>
+    <t>card_name_wings</t>
   </si>
   <si>
     <t>level</t>
@@ -169,6 +193,9 @@
     <t>Prefab_10</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>Tee</t>
   </si>
   <si>
@@ -184,7 +211,34 @@
     <t>evaluation_rule_start_columnIndex</t>
   </si>
   <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>4,9</t>
+  </si>
+  <si>
+    <t>4,13</t>
+  </si>
+  <si>
+    <t>4,17</t>
+  </si>
+  <si>
+    <t>4,21</t>
+  </si>
+  <si>
+    <t>4,25</t>
+  </si>
+  <si>
+    <t>4,29</t>
+  </si>
+  <si>
     <t>HF_01 传奇弹球场</t>
+  </si>
+  <si>
+    <t>HF_03 橙卡弹球场</t>
   </si>
   <si>
     <t>star</t>
@@ -200,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -215,13 +269,42 @@
       <color rgb="FFCE9178"/>
       <name val="Menlo"/>
     </font>
+    <font/>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -230,14 +313,51 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,52 +615,52 @@
       <c r="B1" s="1">
         <v>2.0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
         <v>3.0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>4.0</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>5.0</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>6.0</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>7.0</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1">
         <v>8.0</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1">
         <v>9.0</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1">
         <v>10.0</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1">
         <v>11.0</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1">
         <v>12.0</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1">
         <v>13.0</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1">
         <v>14.0</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1">
         <v>15.0</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1">
         <v>16.0</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1">
         <v>17.0</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1">
         <v>18.0</v>
       </c>
       <c r="S1" s="1">
@@ -683,10 +803,10 @@
       <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>18</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -751,14 +871,235 @@
       <c r="S3" s="1">
         <v>3.0</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I4">
+        <v>1.0</v>
+      </c>
+      <c r="J4">
+        <v>5.0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L4">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="O4" s="4">
+        <v>51.3</v>
+      </c>
+      <c r="P4" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="4">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="O5" s="4">
+        <v>51.3</v>
+      </c>
+      <c r="P5" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="O6" s="4">
+        <v>51.3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="O7" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
@@ -1972,52 +2313,52 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2046,10 +2387,10 @@
         <v>1001.0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -2078,10 +2419,10 @@
         <v>1002.0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -2110,10 +2451,10 @@
         <v>1003.0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -2145,10 +2486,10 @@
         <v>1011.0</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -2177,10 +2518,10 @@
         <v>1005.0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -2209,10 +2550,10 @@
         <v>1006.0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2244,10 +2585,10 @@
         <v>1012.0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -2276,10 +2617,10 @@
         <v>1008.0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2308,10 +2649,10 @@
         <v>1009.0</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2343,45 +2684,1053 @@
         <v>1013.0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1001.0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1002.0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1003.0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1004.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1011.0</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1005.0</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1006.0</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1007.0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1012.0</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1008.0</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1009.0</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1010.0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1013.0</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B25" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1001.0</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B26" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1002.0</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1003.0</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1004.0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1011.0</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1005.0</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1006.0</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1007.0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1012.0</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B32" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1008.0</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1009.0</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B34" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1010.0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1013.0</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B36" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1032.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B37" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1033.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B38" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1034.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1035.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B40" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1036.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B41" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1037.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B42" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1038.0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1039.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1040.0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1041.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B44" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1042.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B45" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1043.0</v>
+      </c>
+    </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
@@ -3361,22 +4710,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>52</v>
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -3389,8 +4738,8 @@
       <c r="C3" s="1">
         <v>3018.4</v>
       </c>
-      <c r="D3" s="1">
-        <v>1.0</v>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -3403,8 +4752,8 @@
       <c r="C4" s="1">
         <v>2952.9</v>
       </c>
-      <c r="D4" s="1">
-        <v>5.0</v>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -3417,8 +4766,8 @@
       <c r="C5" s="1">
         <v>2893.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>9.0</v>
+      <c r="D5" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -3431,20 +4780,124 @@
       <c r="C6" s="1">
         <v>2813.3</v>
       </c>
-      <c r="D6" s="1">
-        <v>13.0</v>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8">
+        <v>1.0</v>
+      </c>
+      <c r="B8">
+        <v>2582.4</v>
+      </c>
+      <c r="C8">
+        <v>3018.4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9">
+        <v>2.0</v>
+      </c>
+      <c r="B9">
+        <v>2582.4</v>
+      </c>
+      <c r="C9">
+        <v>2952.9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10">
+        <v>3.0</v>
+      </c>
+      <c r="B10">
+        <v>2582.4</v>
+      </c>
+      <c r="C10">
+        <v>2893.0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11">
+        <v>4.0</v>
+      </c>
+      <c r="B11">
+        <v>2582.4</v>
+      </c>
+      <c r="C11">
+        <v>2813.3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3018.4</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2952.9</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2893.0</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2813.3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4451,611 +5904,1147 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="30" width="10.56"/>
+    <col customWidth="1" min="1" max="31" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1">
+      <c r="A1" s="10">
         <v>1.0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="10">
         <v>2.0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="10">
         <v>3.0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="10">
         <v>4.0</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="10">
         <v>5.0</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="10">
         <v>6.0</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="10">
         <v>7.0</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="10">
         <v>8.0</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="10">
         <v>9.0</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="10">
         <v>10.0</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="10">
         <v>11.0</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="10">
         <v>12.0</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="10">
         <v>13.0</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="10">
         <v>14.0</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="10">
         <v>15.0</v>
       </c>
       <c r="P1" s="1">
         <v>16.0</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="11">
         <v>17.0</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="11">
         <v>18.0</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="11">
         <v>19.0</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="11">
         <v>20.0</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="11">
         <v>21.0</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="11">
         <v>22.0</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="11">
         <v>23.0</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="11">
         <v>24.0</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="11">
         <v>25.0</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="11">
         <v>26.0</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="11">
         <v>27.0</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="11">
         <v>28.0</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="11">
         <v>29.0</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="11">
         <v>30.0</v>
       </c>
+      <c r="AE1" s="12"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>59</v>
+      <c r="A3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="17"/>
+      <c r="U3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="10">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>-1.0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>-1.0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="15"/>
+      <c r="E4" s="10">
         <v>2.0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
         <v>-1.0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="10">
         <v>-1.0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H4" s="15"/>
+      <c r="I4" s="10">
         <v>3.0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="10">
         <v>-1.0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="10">
         <v>-1.0</v>
       </c>
-      <c r="M4" s="1">
+      <c r="L4" s="15"/>
+      <c r="M4" s="10">
         <v>4.0</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="10">
         <v>-1.0</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="10">
+        <v>-1.0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="R4" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="T4" s="17"/>
+      <c r="U4" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="V4" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AE4" s="18">
         <v>-1.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>2.0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
         <v>-1.0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>200.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="15"/>
+      <c r="E5" s="10">
         <v>3.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="10">
         <v>-1.0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <v>200.0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5" s="15"/>
+      <c r="I5" s="10">
         <v>4.0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="10">
         <v>-1.0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="10">
         <v>200.0</v>
       </c>
-      <c r="M5" s="1">
+      <c r="L5" s="15"/>
+      <c r="M5" s="10">
         <v>5.0</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="10">
         <v>-1.0</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="10">
+        <v>200.0</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="R5" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="S5" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="V5" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AE5" s="18">
         <v>200.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>3.0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>-1.0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>100.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="15"/>
+      <c r="E6" s="10">
         <v>4.0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="10">
         <v>-1.0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <v>100.0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H6" s="15"/>
+      <c r="I6" s="10">
         <v>5.0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="10">
         <v>-1.0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="10">
         <v>100.0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="L6" s="15"/>
+      <c r="M6" s="10">
         <v>6.0</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="10">
         <v>-1.0</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="R6" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="S6" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="V6" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="W6" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AE6" s="18">
         <v>100.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
+      <c r="A7" s="10">
         <v>4.0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>-1.0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <v>50.0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="15"/>
+      <c r="E7" s="10">
         <v>5.0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="10">
         <v>-1.0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="10">
         <v>50.0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H7" s="15"/>
+      <c r="I7" s="10">
         <v>6.0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="10">
         <v>-1.0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="10">
         <v>50.0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="L7" s="15"/>
+      <c r="M7" s="10">
         <v>7.0</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="10">
         <v>-1.0</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="R7" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="S7" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="V7" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="W7" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AE7" s="18">
         <v>50.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
+      <c r="A8" s="10">
         <v>5.0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>-2.0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>-1.0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D8" s="15"/>
+      <c r="E8" s="10">
         <v>6.0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10">
         <v>-2.0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="10">
         <v>-1.0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="H8" s="15"/>
+      <c r="I8" s="10">
         <v>7.0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="10">
         <v>-2.0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="10">
         <v>-1.0</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L8" s="15"/>
+      <c r="M8" s="10">
         <v>8.0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="10">
         <v>-2.0</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="10">
+        <v>-1.0</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="R8" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="S8" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="V8" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="W8" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="AE8" s="18">
         <v>-1.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
+      <c r="A9" s="10">
         <v>6.0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10">
         <v>-2.0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <v>200.0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="15"/>
+      <c r="E9" s="10">
         <v>7.0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="10">
         <v>-2.0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="10">
         <v>200.0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H9" s="15"/>
+      <c r="I9" s="10">
         <v>8.0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="10">
         <v>-2.0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="10">
         <v>200.0</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9" s="15"/>
+      <c r="M9" s="10">
         <v>9.0</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="10">
         <v>-2.0</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="10">
+        <v>200.0</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="S9" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="V9" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="W9" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="AE9" s="18">
         <v>200.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
+      <c r="A10" s="10">
         <v>7.0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>-2.0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>100.0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="15"/>
+      <c r="E10" s="10">
         <v>8.0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <v>-2.0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="10">
         <v>100.0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H10" s="15"/>
+      <c r="I10" s="10">
         <v>9.0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="10">
         <v>-2.0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="10">
         <v>100.0</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L10" s="15"/>
+      <c r="M10" s="10">
         <v>10.0</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="10">
         <v>-2.0</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="S10" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="T10" s="17"/>
+      <c r="U10" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="V10" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="W10" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="AE10" s="18">
         <v>100.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
+      <c r="A11" s="10">
         <v>8.0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>-2.0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>50.0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D11" s="15"/>
+      <c r="E11" s="10">
         <v>9.0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="10">
         <v>-2.0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="10">
         <v>50.0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="H11" s="15"/>
+      <c r="I11" s="10">
         <v>10.0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="10">
         <v>-2.0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="10">
         <v>50.0</v>
       </c>
-      <c r="M11" s="1">
+      <c r="L11" s="15"/>
+      <c r="M11" s="10">
         <v>11.0</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="10">
         <v>-2.0</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="S11" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="V11" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="W11" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="AE11" s="18">
         <v>50.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
+      <c r="A12" s="10">
         <v>9.0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>-3.0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>-1.0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="15"/>
+      <c r="E12" s="10">
         <v>10.0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="10">
         <v>-3.0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="10">
         <v>-1.0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="H12" s="15"/>
+      <c r="I12" s="10">
         <v>11.0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="10">
         <v>-3.0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="10">
         <v>-1.0</v>
       </c>
-      <c r="M12" s="1">
+      <c r="L12" s="15"/>
+      <c r="M12" s="10">
         <v>12.0</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="10">
         <v>-3.0</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="10">
+        <v>-1.0</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="S12" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="V12" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="W12" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="AE12" s="18">
         <v>-1.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
+      <c r="A13" s="10">
         <v>10.0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="10">
         <v>-3.0</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="10">
         <v>200.0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="15"/>
+      <c r="E13" s="10">
         <v>11.0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="10">
         <v>-3.0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="10">
         <v>200.0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="H13" s="15"/>
+      <c r="I13" s="10">
         <v>12.0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="10">
         <v>-3.0</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="10">
         <v>200.0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="L13" s="15"/>
+      <c r="M13" s="10">
         <v>13.0</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="10">
         <v>-3.0</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="10">
+        <v>200.0</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="R13" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="S13" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="V13" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="W13" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="AE13" s="18">
         <v>200.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1">
+      <c r="A14" s="10">
         <v>11.0</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10">
         <v>-3.0</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10">
         <v>100.0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="15"/>
+      <c r="E14" s="10">
         <v>12.0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="10">
         <v>-3.0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="10">
         <v>100.0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="H14" s="15"/>
+      <c r="I14" s="10">
         <v>13.0</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="10">
         <v>-3.0</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="10">
         <v>100.0</v>
       </c>
-      <c r="M14" s="1">
+      <c r="L14" s="15"/>
+      <c r="M14" s="10">
         <v>14.0</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="10">
         <v>-3.0</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="R14" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="S14" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="V14" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="W14" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="AD14" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="AE14" s="18">
         <v>100.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1">
+      <c r="A15" s="10">
         <v>12.0</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="10">
         <v>-3.0</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10">
         <v>50.0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="15"/>
+      <c r="E15" s="10">
         <v>13.0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="10">
         <v>-3.0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="10">
         <v>50.0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="H15" s="15"/>
+      <c r="I15" s="10">
         <v>14.0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="10">
         <v>-3.0</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="10">
         <v>50.0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="L15" s="15"/>
+      <c r="M15" s="10">
         <v>15.0</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="10">
         <v>-3.0</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="R15" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="S15" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="V15" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="W15" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="AD15" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="AE15" s="18">
         <v>50.0</v>
       </c>
     </row>
@@ -6045,6 +8034,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q2:AE2"/>
+    <mergeCell ref="A2:O2"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/CourseCardSystem/CourseCardConfig.xlsx
+++ b/CourseCardSystem/CourseCardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -94,7 +94,7 @@
     <t>game_S1_1004n</t>
   </si>
   <si>
-    <t>card_name_beijing</t>
+    <t>card_name_freedom</t>
   </si>
   <si>
     <t>game_S1_1008n</t>
@@ -106,10 +106,22 @@
     <t>game_S1_1005n</t>
   </si>
   <si>
+    <t>card_name_wings</t>
+  </si>
+  <si>
+    <t>card_name_dawn</t>
+  </si>
+  <si>
     <t>Icon_hole_286</t>
   </si>
   <si>
-    <t>card_name_wings</t>
+    <t>card_name_ninja</t>
+  </si>
+  <si>
+    <t>game_S1_1006n</t>
+  </si>
+  <si>
+    <t>Icon_hole_287</t>
   </si>
   <si>
     <t>level</t>
@@ -193,6 +205,9 @@
     <t>Prefab_10</t>
   </si>
   <si>
+    <t>(-128.8,-102.9)</t>
+  </si>
+  <si>
     <t>(0,0)</t>
   </si>
   <si>
@@ -223,19 +238,31 @@
     <t>4,13</t>
   </si>
   <si>
-    <t>4,17</t>
+    <t>20,1</t>
   </si>
   <si>
-    <t>4,21</t>
+    <t>20,5</t>
   </si>
   <si>
-    <t>4,25</t>
+    <t>20,9</t>
   </si>
   <si>
-    <t>4,29</t>
+    <t>20,13</t>
   </si>
   <si>
-    <t>HF_01 传奇弹球场</t>
+    <t>20,17</t>
+  </si>
+  <si>
+    <t>20,21</t>
+  </si>
+  <si>
+    <t>20,25</t>
+  </si>
+  <si>
+    <t>20,29</t>
+  </si>
+  <si>
+    <t>HF_01 传奇弹球场 YX</t>
   </si>
   <si>
     <t>HF_03 橙卡弹球场</t>
@@ -248,6 +275,9 @@
   </si>
   <si>
     <t>distance</t>
+  </si>
+  <si>
+    <t>HF_05 紫卡弹球场</t>
   </si>
 </sst>
 </file>
@@ -269,7 +299,6 @@
       <color rgb="FFCE9178"/>
       <name val="Menlo"/>
     </font>
-    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -280,8 +309,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +329,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
@@ -306,6 +345,12 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -313,50 +358,67 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -615,52 +677,52 @@
       <c r="B1" s="1">
         <v>2.0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>3.0</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>4.0</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>5.0</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>6.0</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>7.0</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>8.0</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>9.0</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>10.0</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>11.0</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1">
         <v>12.0</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="1">
         <v>13.0</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>14.0</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>15.0</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>16.0</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>17.0</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="1">
         <v>18.0</v>
       </c>
       <c r="S1" s="1">
@@ -803,10 +865,10 @@
       <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -885,7 +947,7 @@
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -894,22 +956,22 @@
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2.0</v>
       </c>
       <c r="H4" s="4">
         <v>2.0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>1.0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>5.0</v>
       </c>
       <c r="K4" s="5">
         <v>0.0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0.8</v>
       </c>
       <c r="M4" s="4">
@@ -939,10 +1001,10 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>3.0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -990,10 +1052,10 @@
       <c r="Q5" s="4">
         <v>0.2</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="3">
         <v>25.0</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="3">
         <v>13.0</v>
       </c>
       <c r="U5" s="4">
@@ -1001,40 +1063,40 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>4.0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>2.0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>3.0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>1.0</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>5.0</v>
       </c>
-      <c r="K6" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="K6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="3">
         <v>0.8</v>
       </c>
       <c r="M6" s="4">
@@ -1051,14 +1113,23 @@
       </c>
       <c r="Q6" s="4">
         <v>0.2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1100.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>5.0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -1066,22 +1137,25 @@
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3">
         <v>2.0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>4.0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>1.0</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>5.0</v>
       </c>
-      <c r="K7" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="K7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="3">
         <v>0.8</v>
       </c>
       <c r="M7" s="1">
@@ -1100,8 +1174,43 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -2313,52 +2422,52 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2387,10 +2496,10 @@
         <v>1001.0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -2419,10 +2528,10 @@
         <v>1002.0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -2451,10 +2560,10 @@
         <v>1003.0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -2486,10 +2595,10 @@
         <v>1011.0</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -2517,11 +2626,14 @@
       <c r="H7" s="1">
         <v>1005.0</v>
       </c>
+      <c r="I7" s="1">
+        <v>1011.0</v>
+      </c>
       <c r="O7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -2549,11 +2661,14 @@
       <c r="H8" s="1">
         <v>1006.0</v>
       </c>
+      <c r="I8" s="1">
+        <v>1011.0</v>
+      </c>
       <c r="O8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2585,10 +2700,10 @@
         <v>1012.0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -2616,11 +2731,14 @@
       <c r="H10" s="1">
         <v>1008.0</v>
       </c>
+      <c r="I10" s="1">
+        <v>1012.0</v>
+      </c>
       <c r="O10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2648,11 +2766,14 @@
       <c r="H11" s="1">
         <v>1009.0</v>
       </c>
+      <c r="I11" s="1">
+        <v>1012.0</v>
+      </c>
       <c r="O11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2684,10 +2805,10 @@
         <v>1013.0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -2713,8 +2834,8 @@
       <c r="G14" s="4">
         <v>5.0</v>
       </c>
-      <c r="H14" s="4">
-        <v>1001.0</v>
+      <c r="H14" s="8">
+        <v>1014.0</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2723,10 +2844,10 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2751,8 +2872,8 @@
       <c r="G15" s="4">
         <v>5.0</v>
       </c>
-      <c r="H15" s="4">
-        <v>1002.0</v>
+      <c r="H15" s="8">
+        <v>1015.0</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -2761,10 +2882,10 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2789,8 +2910,8 @@
       <c r="G16" s="4">
         <v>5.0</v>
       </c>
-      <c r="H16" s="4">
-        <v>1003.0</v>
+      <c r="H16" s="8">
+        <v>1016.0</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -2799,10 +2920,10 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2827,22 +2948,26 @@
       <c r="G17" s="4">
         <v>5.0</v>
       </c>
-      <c r="H17" s="4">
-        <v>1004.0</v>
+      <c r="H17" s="8">
+        <v>1017.0</v>
       </c>
       <c r="I17" s="4">
-        <v>1011.0</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+        <v>1021.0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1028.0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1025.0</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2867,20 +2992,26 @@
       <c r="G18" s="4">
         <v>5.0</v>
       </c>
-      <c r="H18" s="4">
-        <v>1005.0</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="8">
+        <v>1018.0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1021.0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1028.0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1025.0</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2905,20 +3036,26 @@
       <c r="G19" s="4">
         <v>5.0</v>
       </c>
-      <c r="H19" s="4">
-        <v>1006.0</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="H19" s="8">
+        <v>1019.0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1021.0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1028.0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1025.0</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2943,22 +3080,26 @@
       <c r="G20" s="4">
         <v>5.0</v>
       </c>
-      <c r="H20" s="4">
-        <v>1007.0</v>
+      <c r="H20" s="8">
+        <v>1020.0</v>
       </c>
       <c r="I20" s="4">
-        <v>1012.0</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+        <v>1022.0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1029.0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1026.0</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P20" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2983,20 +3124,26 @@
       <c r="G21" s="4">
         <v>5.0</v>
       </c>
-      <c r="H21" s="4">
-        <v>1008.0</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="H21" s="3">
+        <v>1020.0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1023.0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1030.0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1026.0</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -3021,20 +3168,26 @@
       <c r="G22" s="4">
         <v>5.0</v>
       </c>
-      <c r="H22" s="4">
-        <v>1009.0</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="H22" s="3">
+        <v>1020.0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1024.0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1031.0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1026.0</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -3060,21 +3213,27 @@
         <v>5.0</v>
       </c>
       <c r="H23" s="4">
-        <v>1010.0</v>
+        <v>1020.0</v>
       </c>
       <c r="I23" s="4">
-        <v>1013.0</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+        <v>1024.0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1031.0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1026.0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1027.0</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -3110,10 +3269,10 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3148,10 +3307,10 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3186,10 +3345,10 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3226,10 +3385,10 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3264,10 +3423,10 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3302,10 +3461,10 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3342,10 +3501,10 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P31" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3380,10 +3539,10 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3418,10 +3577,10 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3458,10 +3617,10 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3490,6 +3649,12 @@
       <c r="H36" s="4">
         <v>1032.0</v>
       </c>
+      <c r="O36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4">
@@ -3516,6 +3681,12 @@
       <c r="H37" s="4">
         <v>1033.0</v>
       </c>
+      <c r="O37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4">
@@ -3542,6 +3713,12 @@
       <c r="H38" s="4">
         <v>1034.0</v>
       </c>
+      <c r="O38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4">
@@ -3566,7 +3743,22 @@
         <v>5.0</v>
       </c>
       <c r="H39" s="4">
+        <v>1034.0</v>
+      </c>
+      <c r="I39" s="3">
         <v>1035.0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1044.0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1045.0</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3592,7 +3784,22 @@
         <v>5.0</v>
       </c>
       <c r="H40" s="4">
+        <v>1035.0</v>
+      </c>
+      <c r="I40" s="3">
         <v>1036.0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1044.0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1045.0</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3618,7 +3825,22 @@
         <v>5.0</v>
       </c>
       <c r="H41" s="4">
+        <v>1036.0</v>
+      </c>
+      <c r="I41" s="3">
         <v>1037.0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1044.0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1045.0</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3644,10 +3866,28 @@
         <v>5.0</v>
       </c>
       <c r="H42" s="4">
+        <v>1036.0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1037.0</v>
+      </c>
+      <c r="J42" s="3">
         <v>1038.0</v>
       </c>
-      <c r="I42" s="7">
+      <c r="K42" s="3">
+        <v>1047.0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1046.0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1039.0</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3673,10 +3913,28 @@
         <v>5.0</v>
       </c>
       <c r="H43" s="4">
-        <v>1040.0</v>
-      </c>
-      <c r="I43" s="7">
+        <v>1036.0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1037.0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1044.0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1047.0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1046.0</v>
+      </c>
+      <c r="M43" s="3">
         <v>1041.0</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3702,7 +3960,28 @@
         <v>5.0</v>
       </c>
       <c r="H44" s="4">
+        <v>1036.0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1037.0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1044.0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1047.0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1046.0</v>
+      </c>
+      <c r="M44" s="3">
         <v>1042.0</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3728,31 +4007,728 @@
         <v>5.0</v>
       </c>
       <c r="H45" s="4">
+        <v>1036.0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1037.0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1044.0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1049.0</v>
+      </c>
+      <c r="L45" s="3">
         <v>1043.0</v>
       </c>
+      <c r="M45" s="3">
+        <v>1048.0</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B47" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="O47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B48" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="O48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B49" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="O49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B50" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="O50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B51" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="O51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B52" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="O52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="O53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B54" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="O54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B55" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="O55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B56" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="O56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B58" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1063.0</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B59" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1063.0</v>
+      </c>
+      <c r="I59" s="10">
+        <v>1064.0</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B60" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1065.0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>1064.0</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B61" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1065.0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>1068.0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1066.0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>1067.0</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B62" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H62" s="9">
+        <v>1069.0</v>
+      </c>
+      <c r="I62" s="10">
+        <v>1068.0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1066.0</v>
+      </c>
+      <c r="K62" s="5">
+        <v>1067.0</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B63" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1070.0</v>
+      </c>
+      <c r="I63" s="10">
+        <v>1068.0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1066.0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>1067.0</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B64" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="5">
+        <v>1071.0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1072.0</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B65" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B66" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B67" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
@@ -4710,22 +5686,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>61</v>
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -4739,7 +5715,7 @@
         <v>3018.4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -4753,7 +5729,7 @@
         <v>2952.9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -4767,7 +5743,7 @@
         <v>2893.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -4781,64 +5757,64 @@
         <v>2813.3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1.0</v>
       </c>
-      <c r="B8">
-        <v>2582.4</v>
-      </c>
-      <c r="C8">
-        <v>3018.4</v>
+      <c r="B8" s="3">
+        <v>-172.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-909.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2.0</v>
       </c>
-      <c r="B9">
-        <v>2582.4</v>
-      </c>
-      <c r="C9">
-        <v>2952.9</v>
+      <c r="B9" s="3">
+        <v>-178.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-983.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>3.0</v>
       </c>
-      <c r="B10">
-        <v>2582.4</v>
-      </c>
-      <c r="C10">
-        <v>2893.0</v>
+      <c r="B10" s="3">
+        <v>-131.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1061.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>4.0</v>
       </c>
-      <c r="B11">
-        <v>2582.4</v>
-      </c>
-      <c r="C11">
-        <v>2813.3</v>
+      <c r="B11" s="3">
+        <v>-126.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1117.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4852,8 +5828,8 @@
       <c r="C13" s="1">
         <v>3018.4</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>69</v>
+      <c r="D13" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -4866,8 +5842,8 @@
       <c r="C14" s="1">
         <v>2952.9</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>70</v>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -4880,8 +5856,8 @@
       <c r="C15" s="1">
         <v>2893.0</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>71</v>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -4894,15 +5870,67 @@
       <c r="C16" s="1">
         <v>2813.3</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>72</v>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3018.4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2952.9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2893.0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2813.3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -5908,224 +6936,224 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10">
+      <c r="A1" s="12">
         <v>1.0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="12">
         <v>2.0</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="12">
         <v>3.0</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="12">
         <v>4.0</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="12">
         <v>5.0</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="12">
         <v>6.0</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="12">
         <v>7.0</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="12">
         <v>8.0</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="12">
         <v>9.0</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="12">
         <v>10.0</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="12">
         <v>11.0</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="12">
         <v>12.0</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="12">
         <v>13.0</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="12">
         <v>14.0</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="12">
         <v>15.0</v>
       </c>
       <c r="P1" s="1">
         <v>16.0</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="13">
         <v>17.0</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="13">
         <v>18.0</v>
       </c>
-      <c r="S1" s="11">
+      <c r="S1" s="13">
         <v>19.0</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="13">
         <v>20.0</v>
       </c>
-      <c r="U1" s="11">
+      <c r="U1" s="13">
         <v>21.0</v>
       </c>
-      <c r="V1" s="11">
+      <c r="V1" s="13">
         <v>22.0</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="13">
         <v>23.0</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="13">
         <v>24.0</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Y1" s="13">
         <v>25.0</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="13">
         <v>26.0</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AA1" s="13">
         <v>27.0</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AB1" s="13">
         <v>28.0</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AC1" s="13">
         <v>29.0</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AD1" s="13">
         <v>30.0</v>
       </c>
-      <c r="AE1" s="12"/>
+      <c r="AE1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>74</v>
+      <c r="A2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>77</v>
+      <c r="A3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="T3" s="17"/>
       <c r="U3" s="16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AA3" s="16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AB3" s="17"/>
       <c r="AC3" s="16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AD3" s="16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>1.0</v>
       </c>
-      <c r="B4" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="10">
+      <c r="B4" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
         <v>2.0</v>
       </c>
-      <c r="F4" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="10">
+      <c r="F4" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
         <v>3.0</v>
       </c>
-      <c r="J4" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="10">
+      <c r="J4" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>4.0</v>
       </c>
-      <c r="N4" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="N4" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="O4" s="12">
         <v>-1.0</v>
       </c>
       <c r="Q4" s="18">
@@ -6169,43 +7197,43 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>2.0</v>
       </c>
-      <c r="B5" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="C5" s="12">
         <v>200.0</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
         <v>3.0</v>
       </c>
-      <c r="F5" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="G5" s="12">
         <v>200.0</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="10">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12">
         <v>4.0</v>
       </c>
-      <c r="J5" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J5" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="K5" s="12">
         <v>200.0</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="10">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
         <v>5.0</v>
       </c>
-      <c r="N5" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="N5" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="O5" s="12">
         <v>200.0</v>
       </c>
       <c r="Q5" s="18">
@@ -6249,43 +7277,43 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>3.0</v>
       </c>
-      <c r="B6" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="10">
+      <c r="B6" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>4.0</v>
       </c>
-      <c r="F6" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="10">
+      <c r="F6" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12">
         <v>5.0</v>
       </c>
-      <c r="J6" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="10">
+      <c r="J6" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>6.0</v>
       </c>
-      <c r="N6" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="N6" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="O6" s="12">
         <v>100.0</v>
       </c>
       <c r="Q6" s="18">
@@ -6329,43 +7357,43 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>4.0</v>
       </c>
-      <c r="B7" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="C7" s="12">
         <v>50.0</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="10">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
         <v>5.0</v>
       </c>
-      <c r="F7" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="G7" s="12">
         <v>50.0</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="10">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12">
         <v>6.0</v>
       </c>
-      <c r="J7" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="J7" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="K7" s="12">
         <v>50.0</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="10">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
         <v>7.0</v>
       </c>
-      <c r="N7" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="N7" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="O7" s="12">
         <v>50.0</v>
       </c>
       <c r="Q7" s="18">
@@ -6409,43 +7437,43 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>5.0</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="12">
         <v>-2.0</v>
       </c>
-      <c r="C8" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10">
+      <c r="C8" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>6.0</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>-2.0</v>
       </c>
-      <c r="G8" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="10">
+      <c r="G8" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12">
         <v>7.0</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="12">
         <v>-2.0</v>
       </c>
-      <c r="K8" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="10">
+      <c r="K8" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
         <v>8.0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="12">
         <v>-2.0</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="12">
         <v>-1.0</v>
       </c>
       <c r="Q8" s="18">
@@ -6489,43 +7517,43 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>6.0</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="12">
         <v>-2.0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="12">
         <v>200.0</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="10">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
         <v>7.0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="12">
         <v>-2.0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="12">
         <v>200.0</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="10">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
         <v>8.0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="12">
         <v>-2.0</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="12">
         <v>200.0</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="10">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>9.0</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="12">
         <v>-2.0</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="12">
         <v>200.0</v>
       </c>
       <c r="Q9" s="18">
@@ -6569,43 +7597,43 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>7.0</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="12">
         <v>-2.0</v>
       </c>
-      <c r="C10" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="10">
+      <c r="C10" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>8.0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>-2.0</v>
       </c>
-      <c r="G10" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="10">
+      <c r="G10" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
         <v>9.0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="12">
         <v>-2.0</v>
       </c>
-      <c r="K10" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="10">
+      <c r="K10" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>10.0</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="12">
         <v>-2.0</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="12">
         <v>100.0</v>
       </c>
       <c r="Q10" s="18">
@@ -6649,43 +7677,43 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>8.0</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="12">
         <v>-2.0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <v>50.0</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>9.0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>-2.0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="12">
         <v>50.0</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="10">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
         <v>10.0</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="12">
         <v>-2.0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="12">
         <v>50.0</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="10">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
         <v>11.0</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="12">
         <v>-2.0</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="12">
         <v>50.0</v>
       </c>
       <c r="Q11" s="18">
@@ -6729,43 +7757,43 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>9.0</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="12">
         <v>-3.0</v>
       </c>
-      <c r="C12" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="10">
+      <c r="C12" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>10.0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="12">
         <v>-3.0</v>
       </c>
-      <c r="G12" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="10">
+      <c r="G12" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>11.0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="12">
         <v>-3.0</v>
       </c>
-      <c r="K12" s="10">
-        <v>-1.0</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="10">
+      <c r="K12" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>12.0</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="12">
         <v>-3.0</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="12">
         <v>-1.0</v>
       </c>
       <c r="Q12" s="18">
@@ -6809,43 +7837,43 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>10.0</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="12">
         <v>-3.0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="12">
         <v>200.0</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="10">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>11.0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="12">
         <v>-3.0</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="12">
         <v>200.0</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="10">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
         <v>12.0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="12">
         <v>-3.0</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="12">
         <v>200.0</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="10">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12">
         <v>13.0</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="12">
         <v>-3.0</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="12">
         <v>200.0</v>
       </c>
       <c r="Q13" s="18">
@@ -6889,43 +7917,43 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>11.0</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="12">
         <v>-3.0</v>
       </c>
-      <c r="C14" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="10">
+      <c r="C14" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
         <v>12.0</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="12">
         <v>-3.0</v>
       </c>
-      <c r="G14" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="10">
+      <c r="G14" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
         <v>13.0</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="12">
         <v>-3.0</v>
       </c>
-      <c r="K14" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="10">
+      <c r="K14" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
         <v>14.0</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="12">
         <v>-3.0</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="12">
         <v>100.0</v>
       </c>
       <c r="Q14" s="18">
@@ -6969,43 +7997,43 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="12">
         <v>12.0</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="12">
         <v>-3.0</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="12">
         <v>50.0</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="10">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>13.0</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="12">
         <v>-3.0</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="12">
         <v>50.0</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="10">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
         <v>14.0</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="12">
         <v>-3.0</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="12">
         <v>50.0</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="10">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
         <v>15.0</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="12">
         <v>-3.0</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="12">
         <v>50.0</v>
       </c>
       <c r="Q15" s="18">
@@ -7049,21 +8077,1086 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T19" s="22"/>
+      <c r="U19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="W19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE19" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="B20" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="N20" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="O20" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="R20" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="S20" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="V20" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="W20" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="Z20" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AA20" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="AD20" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AE20" s="23">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="B21" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="C21" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="N21" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="O21" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="R21" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="S21" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="V21" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="W21" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="Z21" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AA21" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="AD21" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AE21" s="23">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="B22" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="C22" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="O22" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="R22" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="S22" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="V22" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="W22" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="Z22" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AA22" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="AD22" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AE22" s="23">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="B23" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="C23" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="N23" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="O23" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="R23" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="S23" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="T23" s="22"/>
+      <c r="U23" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="V23" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="W23" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="Z23" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AA23" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="AD23" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AE23" s="23">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="B24" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="C24" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="O24" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="R24" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="S24" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="T24" s="22"/>
+      <c r="U24" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="V24" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="W24" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="Z24" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="AA24" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="AD24" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="AE24" s="23">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="B25" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="K25" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="N25" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="O25" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="R25" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="S25" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="T25" s="22"/>
+      <c r="U25" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="V25" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="W25" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="Z25" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="AA25" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="AD25" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="AE25" s="23">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="B26" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="O26" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="R26" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="S26" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="T26" s="22"/>
+      <c r="U26" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="V26" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="W26" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="Z26" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="AA26" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="AD26" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="AE26" s="23">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="B27" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="C27" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>-2.0</v>
+      </c>
+      <c r="O27" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="R27" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="S27" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="T27" s="22"/>
+      <c r="U27" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="V27" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="W27" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="Z27" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="AA27" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="AD27" s="23">
+        <v>-2.0</v>
+      </c>
+      <c r="AE27" s="23">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="B28" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="C28" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="O28" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="R28" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="S28" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="T28" s="22"/>
+      <c r="U28" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="V28" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="W28" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="Z28" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="AA28" s="23">
+        <v>-1.0</v>
+      </c>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="AD28" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="AE28" s="23">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="B29" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="C29" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="O29" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="R29" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="S29" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="T29" s="22"/>
+      <c r="U29" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="V29" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="W29" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="Z29" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="AA29" s="23">
+        <v>200.0</v>
+      </c>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="AD29" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="AE29" s="23">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="B30" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="C30" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="K30" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="O30" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="R30" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="S30" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="T30" s="22"/>
+      <c r="U30" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="V30" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="W30" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="Z30" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="AA30" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="AD30" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="AE30" s="23">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="B31" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="C31" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="G31" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="K31" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>-3.0</v>
+      </c>
+      <c r="O31" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="R31" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="S31" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="T31" s="22"/>
+      <c r="U31" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="V31" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="W31" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="Z31" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="AA31" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="AD31" s="23">
+        <v>-3.0</v>
+      </c>
+      <c r="AE31" s="23">
+        <v>50.0</v>
+      </c>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -8034,9 +10127,11 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="Q2:AE2"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="A18:O18"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/CourseCardSystem/CourseCardConfig.xlsx
+++ b/CourseCardSystem/CourseCardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -79,7 +79,7 @@
     <t>card_name_lighthouse</t>
   </si>
   <si>
-    <t>game_S1_1003n</t>
+    <t>game_HF_01n</t>
   </si>
   <si>
     <t>Icon_hole_285</t>
@@ -91,27 +91,30 @@
     <t>card_name_tide</t>
   </si>
   <si>
+    <t>Demo_test_HF_03</t>
+  </si>
+  <si>
+    <t>card_name_freedom</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08</t>
+  </si>
+  <si>
+    <t>card_name_track</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05</t>
+  </si>
+  <si>
+    <t>card_name_wings</t>
+  </si>
+  <si>
+    <t>card_name_dawn</t>
+  </si>
+  <si>
     <t>game_S1_1004n</t>
   </si>
   <si>
-    <t>card_name_freedom</t>
-  </si>
-  <si>
-    <t>game_S1_1008n</t>
-  </si>
-  <si>
-    <t>card_name_track</t>
-  </si>
-  <si>
-    <t>game_S1_1005n</t>
-  </si>
-  <si>
-    <t>card_name_wings</t>
-  </si>
-  <si>
-    <t>card_name_dawn</t>
-  </si>
-  <si>
     <t>Icon_hole_286</t>
   </si>
   <si>
@@ -124,6 +127,12 @@
     <t>Icon_hole_287</t>
   </si>
   <si>
+    <t>card_name_succeed</t>
+  </si>
+  <si>
+    <t>game_S1_1007n</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -172,12 +181,138 @@
     <t>path_pos</t>
   </si>
   <si>
+    <t>game_HF_01n_LV1</t>
+  </si>
+  <si>
+    <t>(2624.183,3225),(2676.892,-3310),(2752.17,3376.429),(2766.528,3475.393),(2711.455,3558.861),(2642.72,3631.495),(2673.899,3726.51),(2713.537,3818.319),(2676.623,3911.256),(2623.082,3995.715),(2631.497,4047.165)</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV2</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV3</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV4</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV5</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV6</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV7</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV8</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV9</t>
+  </si>
+  <si>
+    <t>game_HF_01n_LV10</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV1</t>
+  </si>
+  <si>
+    <t>(-128.8,-102.9)</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV2</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV3</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV4</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV5</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV6</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV7</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV8</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV9</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_03_LV10</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV1</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV2</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV3</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV4</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV5</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV6</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV7</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV8</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV9</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_08_LV10</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV1</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV2</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV3</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV4</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV5</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV6</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV7</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV8</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV9</t>
+  </si>
+  <si>
+    <t>Demo_test_HF_05_LV10</t>
+  </si>
+  <si>
     <t>Prefab_1</t>
   </si>
   <si>
-    <t>(2624.183,3225),(2676.892,-3310),(2752.17,3376.429),(2766.528,3475.393),(2711.455,3558.861),(2642.72,3631.495),(2673.899,3726.51),(2713.537,3818.319),(2676.623,3911.256),(2623.082,3995.715),(2631.497,4047.165)</t>
-  </si>
-  <si>
     <t>Prefab_2</t>
   </si>
   <si>
@@ -205,12 +340,6 @@
     <t>Prefab_10</t>
   </si>
   <si>
-    <t>(-128.8,-102.9)</t>
-  </si>
-  <si>
-    <t>(0,0)</t>
-  </si>
-  <si>
     <t>Tee</t>
   </si>
   <si>
@@ -262,6 +391,30 @@
     <t>20,29</t>
   </si>
   <si>
+    <t>52,1</t>
+  </si>
+  <si>
+    <t>52,5</t>
+  </si>
+  <si>
+    <t>52,9</t>
+  </si>
+  <si>
+    <t>52,13</t>
+  </si>
+  <si>
+    <t>33,1</t>
+  </si>
+  <si>
+    <t>33,5</t>
+  </si>
+  <si>
+    <t>33,9</t>
+  </si>
+  <si>
+    <t>33,13</t>
+  </si>
+  <si>
     <t>HF_01 传奇弹球场 YX</t>
   </si>
   <si>
@@ -277,14 +430,23 @@
     <t>distance</t>
   </si>
   <si>
-    <t>HF_05 紫卡弹球场</t>
+    <t>HF_08 橙卡弹球场</t>
+  </si>
+  <si>
+    <t>HF_05 紫卡弹球场 HKY</t>
+  </si>
+  <si>
+    <t>HF_06 紫卡弹球场 wxj</t>
+  </si>
+  <si>
+    <t>HF_07 紫卡弹球场</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -310,11 +472,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FFCE9178"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +502,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
@@ -351,6 +530,12 @@
         <bgColor rgb="FFB4A7D6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -358,15 +543,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -380,46 +565,59 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +865,7 @@
     <col customWidth="1" min="24" max="32" width="10.56"/>
     <col customWidth="1" min="33" max="33" width="14.33"/>
     <col customWidth="1" min="34" max="34" width="43.67"/>
-    <col customWidth="1" min="35" max="47" width="10.56"/>
+    <col customWidth="1" min="35" max="48" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -882,7 +1080,7 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -891,7 +1089,7 @@
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="1">
@@ -933,7 +1131,7 @@
       <c r="S3" s="1">
         <v>3.0</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>1200.0</v>
       </c>
     </row>
@@ -944,7 +1142,7 @@
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -953,7 +1151,7 @@
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="1">
@@ -1001,13 +1199,13 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1016,7 +1214,7 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="1">
@@ -1052,10 +1250,10 @@
       <c r="Q5" s="4">
         <v>0.2</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>25.0</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>13.0</v>
       </c>
       <c r="U5" s="4">
@@ -1063,40 +1261,40 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>2.0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>3.0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1.0</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>5.0</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
         <v>0.8</v>
       </c>
       <c r="M6" s="4">
@@ -1114,106 +1312,192 @@
       <c r="Q6" s="4">
         <v>0.2</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>36.0</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>18.0</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>1100.0</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G9" s="2">
         <v>2.0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H9" s="2">
         <v>4.0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I9" s="2">
         <v>1.0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J9" s="2">
         <v>5.0</v>
       </c>
-      <c r="K7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.8</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M9" s="1">
         <v>2.0</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N9" s="1">
         <v>0.41</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O9" s="1">
         <v>51.3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P9" s="1">
         <v>30.0</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q9" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="G10" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="O10" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
+      <c r="G12" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="O12" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -2199,9 +2483,6 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -2221,7 +2502,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="14" width="10.56"/>
-    <col customWidth="1" min="15" max="15" width="18.78"/>
+    <col customWidth="1" min="15" max="15" width="20.89"/>
     <col customWidth="1" min="16" max="16" width="108.44"/>
     <col customWidth="1" min="17" max="64" width="10.56"/>
   </cols>
@@ -2422,52 +2703,52 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2495,11 +2776,11 @@
       <c r="H3" s="1">
         <v>1001.0</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>52</v>
+      <c r="O3" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -2527,11 +2808,11 @@
       <c r="H4" s="1">
         <v>1002.0</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>54</v>
+      <c r="O4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -2559,11 +2840,11 @@
       <c r="H5" s="1">
         <v>1003.0</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>55</v>
+      <c r="O5" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -2594,11 +2875,11 @@
       <c r="I6" s="1">
         <v>1011.0</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -2629,11 +2910,11 @@
       <c r="I7" s="1">
         <v>1011.0</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>57</v>
+      <c r="O7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -2664,11 +2945,11 @@
       <c r="I8" s="1">
         <v>1011.0</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>58</v>
+      <c r="O8" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2699,11 +2980,11 @@
       <c r="I9" s="1">
         <v>1012.0</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>59</v>
+      <c r="O9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -2734,11 +3015,11 @@
       <c r="I10" s="1">
         <v>1012.0</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>60</v>
+      <c r="O10" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2769,11 +3050,11 @@
       <c r="I11" s="1">
         <v>1012.0</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>61</v>
+      <c r="O11" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2804,11 +3085,11 @@
       <c r="I12" s="1">
         <v>1013.0</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>62</v>
+      <c r="O12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -2834,7 +3115,7 @@
       <c r="G14" s="4">
         <v>5.0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>1014.0</v>
       </c>
       <c r="I14" s="6"/>
@@ -2843,11 +3124,11 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>63</v>
+      <c r="O14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2872,7 +3153,7 @@
       <c r="G15" s="4">
         <v>5.0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="9">
         <v>1015.0</v>
       </c>
       <c r="I15" s="6"/>
@@ -2881,11 +3162,11 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>63</v>
+      <c r="O15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2910,7 +3191,7 @@
       <c r="G16" s="4">
         <v>5.0</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>1016.0</v>
       </c>
       <c r="I16" s="6"/>
@@ -2919,11 +3200,11 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>63</v>
+      <c r="O16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2948,7 +3229,7 @@
       <c r="G17" s="4">
         <v>5.0</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="9">
         <v>1017.0</v>
       </c>
       <c r="I17" s="4">
@@ -2963,11 +3244,11 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>63</v>
+      <c r="O17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2992,7 +3273,7 @@
       <c r="G18" s="4">
         <v>5.0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="9">
         <v>1018.0</v>
       </c>
       <c r="I18" s="4">
@@ -3007,11 +3288,11 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>63</v>
+      <c r="O18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -3036,7 +3317,7 @@
       <c r="G19" s="4">
         <v>5.0</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="9">
         <v>1019.0</v>
       </c>
       <c r="I19" s="4">
@@ -3051,11 +3332,11 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>63</v>
+      <c r="O19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -3080,7 +3361,7 @@
       <c r="G20" s="4">
         <v>5.0</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="9">
         <v>1020.0</v>
       </c>
       <c r="I20" s="4">
@@ -3095,11 +3376,11 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>63</v>
+      <c r="O20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -3124,7 +3405,7 @@
       <c r="G21" s="4">
         <v>5.0</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>1020.0</v>
       </c>
       <c r="I21" s="4">
@@ -3139,11 +3420,11 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>63</v>
+      <c r="O21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -3168,7 +3449,7 @@
       <c r="G22" s="4">
         <v>5.0</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>1020.0</v>
       </c>
       <c r="I22" s="4">
@@ -3183,11 +3464,11 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>63</v>
+      <c r="O22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -3229,11 +3510,11 @@
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>63</v>
+      <c r="O23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -3260,19 +3541,19 @@
         <v>5.0</v>
       </c>
       <c r="H25" s="4">
-        <v>1001.0</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>1050.0</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>64</v>
+      <c r="O25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3298,7 +3579,7 @@
         <v>5.0</v>
       </c>
       <c r="H26" s="4">
-        <v>1002.0</v>
+        <v>1051.0</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -3306,11 +3587,11 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>64</v>
+      <c r="O26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3336,19 +3617,21 @@
         <v>5.0</v>
       </c>
       <c r="H27" s="4">
-        <v>1003.0</v>
-      </c>
-      <c r="I27" s="6"/>
+        <v>1052.0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1053.0</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>64</v>
+      <c r="O27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3374,21 +3657,23 @@
         <v>5.0</v>
       </c>
       <c r="H28" s="4">
-        <v>1004.0</v>
+        <v>1054.0</v>
       </c>
       <c r="I28" s="4">
-        <v>1011.0</v>
-      </c>
-      <c r="J28" s="6"/>
+        <v>1053.0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1062.0</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>64</v>
+      <c r="O28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3414,19 +3699,23 @@
         <v>5.0</v>
       </c>
       <c r="H29" s="4">
-        <v>1005.0</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+        <v>1055.0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1053.0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1062.0</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>64</v>
+      <c r="O29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3452,19 +3741,23 @@
         <v>5.0</v>
       </c>
       <c r="H30" s="4">
-        <v>1006.0</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+        <v>1056.0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1053.0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1062.0</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>64</v>
+      <c r="O30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3490,21 +3783,27 @@
         <v>5.0</v>
       </c>
       <c r="H31" s="4">
-        <v>1007.0</v>
+        <v>1056.0</v>
       </c>
       <c r="I31" s="4">
-        <v>1012.0</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+        <v>1053.0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1057.0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1062.0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1097.0</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>64</v>
+      <c r="O31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3530,19 +3829,27 @@
         <v>5.0</v>
       </c>
       <c r="H32" s="4">
-        <v>1008.0</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+        <v>1058.0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1053.0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1057.0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1062.0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1097.0</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>64</v>
+      <c r="O32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3568,19 +3875,27 @@
         <v>5.0</v>
       </c>
       <c r="H33" s="4">
-        <v>1009.0</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+        <v>1061.0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1053.0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1060.0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1062.0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1097.0</v>
+      </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>64</v>
+      <c r="O33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3606,21 +3921,29 @@
         <v>5.0</v>
       </c>
       <c r="H34" s="4">
-        <v>1010.0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1013.0</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+        <v>1061.0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1053.0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1060.0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1059.0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1062.0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1097.0</v>
+      </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>64</v>
+      <c r="O34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3649,11 +3972,11 @@
       <c r="H36" s="4">
         <v>1032.0</v>
       </c>
-      <c r="O36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>64</v>
+      <c r="O36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3681,11 +4004,11 @@
       <c r="H37" s="4">
         <v>1033.0</v>
       </c>
-      <c r="O37" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>64</v>
+      <c r="O37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3713,11 +4036,11 @@
       <c r="H38" s="4">
         <v>1034.0</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>64</v>
+      <c r="O38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3745,20 +4068,20 @@
       <c r="H39" s="4">
         <v>1034.0</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>1035.0</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>1044.0</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>1045.0</v>
       </c>
-      <c r="O39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>64</v>
+      <c r="O39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3786,20 +4109,20 @@
       <c r="H40" s="4">
         <v>1035.0</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <v>1036.0</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>1044.0</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>1045.0</v>
       </c>
-      <c r="O40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>64</v>
+      <c r="O40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3827,20 +4150,20 @@
       <c r="H41" s="4">
         <v>1036.0</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>1037.0</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>1044.0</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>1045.0</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>64</v>
+      <c r="O41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3868,26 +4191,26 @@
       <c r="H42" s="4">
         <v>1036.0</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>1037.0</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>1038.0</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>1047.0</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <v>1046.0</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <v>1039.0</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>64</v>
+      <c r="O42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3915,26 +4238,26 @@
       <c r="H43" s="4">
         <v>1036.0</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>1037.0</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>1044.0</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>1047.0</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>1046.0</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="2">
         <v>1041.0</v>
       </c>
-      <c r="O43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>64</v>
+      <c r="O43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3962,26 +4285,26 @@
       <c r="H44" s="4">
         <v>1036.0</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>1037.0</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>1044.0</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>1047.0</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>1046.0</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <v>1042.0</v>
       </c>
-      <c r="O44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>64</v>
+      <c r="O44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4009,26 +4332,26 @@
       <c r="H45" s="4">
         <v>1036.0</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>1037.0</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>1044.0</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>1049.0</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>1043.0</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="2">
         <v>1048.0</v>
       </c>
-      <c r="O45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>64</v>
+      <c r="O45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
@@ -4056,10 +4379,10 @@
       </c>
       <c r="H47" s="4"/>
       <c r="O47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4086,10 +4409,10 @@
       </c>
       <c r="H48" s="4"/>
       <c r="O48" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -4116,10 +4439,10 @@
       </c>
       <c r="H49" s="4"/>
       <c r="O49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -4146,10 +4469,10 @@
       </c>
       <c r="H50" s="4"/>
       <c r="O50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>64</v>
+        <v>101</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -4176,10 +4499,10 @@
       </c>
       <c r="H51" s="4"/>
       <c r="O51" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -4206,10 +4529,10 @@
       </c>
       <c r="H52" s="4"/>
       <c r="O52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>64</v>
+        <v>103</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -4236,10 +4559,10 @@
       </c>
       <c r="H53" s="4"/>
       <c r="O53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>64</v>
+        <v>104</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -4266,10 +4589,10 @@
       </c>
       <c r="H54" s="4"/>
       <c r="O54" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>64</v>
+        <v>105</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -4296,10 +4619,10 @@
       </c>
       <c r="H55" s="4"/>
       <c r="O55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>64</v>
+        <v>106</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -4326,10 +4649,10 @@
       </c>
       <c r="H56" s="4"/>
       <c r="O56" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>64</v>
+        <v>107</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
@@ -4355,7 +4678,7 @@
       <c r="G58" s="4">
         <v>5.0</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="10">
         <v>1063.0</v>
       </c>
       <c r="I58" s="6"/>
@@ -4365,10 +4688,10 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -4393,10 +4716,10 @@
       <c r="G59" s="4">
         <v>5.0</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="10">
         <v>1063.0</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="11">
         <v>1064.0</v>
       </c>
       <c r="J59" s="6"/>
@@ -4405,10 +4728,10 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4433,10 +4756,10 @@
       <c r="G60" s="4">
         <v>5.0</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="10">
         <v>1065.0</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="11">
         <v>1064.0</v>
       </c>
       <c r="J60" s="6"/>
@@ -4445,10 +4768,10 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -4473,10 +4796,10 @@
       <c r="G61" s="4">
         <v>5.0</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="10">
         <v>1065.0</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="11">
         <v>1068.0</v>
       </c>
       <c r="J61" s="5">
@@ -4489,10 +4812,10 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>64</v>
+        <v>101</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -4517,10 +4840,10 @@
       <c r="G62" s="4">
         <v>5.0</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="10">
         <v>1069.0</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="11">
         <v>1068.0</v>
       </c>
       <c r="J62" s="5">
@@ -4533,10 +4856,10 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4561,10 +4884,10 @@
       <c r="G63" s="4">
         <v>5.0</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="10">
         <v>1070.0</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="11">
         <v>1068.0</v>
       </c>
       <c r="J63" s="5">
@@ -4577,10 +4900,10 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>64</v>
+        <v>103</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -4605,8 +4928,12 @@
       <c r="G64" s="4">
         <v>5.0</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="4"/>
+      <c r="H64" s="10">
+        <v>1070.0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1073.0</v>
+      </c>
       <c r="J64" s="5">
         <v>1071.0</v>
       </c>
@@ -4617,10 +4944,10 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>64</v>
+        <v>104</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4645,17 +4972,26 @@
       <c r="G65" s="4">
         <v>5.0</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="H65" s="2">
+        <v>1074.0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1073.0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1071.0</v>
+      </c>
+      <c r="K65" s="5">
+        <v>1072.0</v>
+      </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>64</v>
+        <v>105</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -4680,17 +5016,26 @@
       <c r="G66" s="4">
         <v>5.0</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="H66" s="2">
+        <v>1075.0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1073.0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1071.0</v>
+      </c>
+      <c r="K66" s="5">
+        <v>1072.0</v>
+      </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>64</v>
+        <v>106</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -4715,31 +5060,427 @@
       <c r="G67" s="4">
         <v>5.0</v>
       </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="6"/>
+      <c r="H67" s="2">
+        <v>1075.0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1073.0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1076.0</v>
+      </c>
+      <c r="K67" s="5">
+        <v>1077.0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>1078.0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>1079.0</v>
+      </c>
       <c r="N67" s="6"/>
       <c r="O67" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>64</v>
+        <v>107</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B69" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>1080.0</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B70" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H70" s="10">
+        <v>1081.0</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B71" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>1082.0</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B72" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>1083.0</v>
+      </c>
+      <c r="I72" s="12">
+        <v>1084.0</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B73" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>1085.0</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B74" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>1086.0</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B75" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1087.0</v>
+      </c>
+      <c r="I75" s="10">
+        <v>1088.0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1089.0</v>
+      </c>
+      <c r="K75" s="5"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B76" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1090.0</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1091.0</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B77" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1092.0</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1093.0</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B78" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1094.0</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1095.0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1096.0</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="79" ht="15.75" customHeight="1"/>
     <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
@@ -5686,22 +6427,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>66</v>
+      <c r="A1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -5714,8 +6455,8 @@
       <c r="C3" s="1">
         <v>3018.4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
+      <c r="D3" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -5728,8 +6469,8 @@
       <c r="C4" s="1">
         <v>2952.9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>71</v>
+      <c r="D4" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -5742,8 +6483,8 @@
       <c r="C5" s="1">
         <v>2893.0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>72</v>
+      <c r="D5" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -5756,8 +6497,8 @@
       <c r="C6" s="1">
         <v>2813.3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>73</v>
+      <c r="D6" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -5765,56 +6506,56 @@
       <c r="A8" s="1">
         <v>1.0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>-172.0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>-909.0</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>74</v>
+      <c r="D8" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>2.0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>-178.0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>-983.0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>75</v>
+      <c r="D9" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>3.0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>-131.0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>-1061.0</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>76</v>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>4.0</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>-126.0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>-1117.0</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
+      <c r="D11" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -5828,8 +6569,8 @@
       <c r="C13" s="1">
         <v>3018.4</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
+      <c r="D13" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -5842,8 +6583,8 @@
       <c r="C14" s="1">
         <v>2952.9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>75</v>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -5856,8 +6597,8 @@
       <c r="C15" s="1">
         <v>2893.0</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>76</v>
+      <c r="D15" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -5870,8 +6611,8 @@
       <c r="C16" s="1">
         <v>2813.3</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>77</v>
+      <c r="D16" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -5879,68 +6620,172 @@
       <c r="A18" s="1">
         <v>1.0</v>
       </c>
-      <c r="B18" s="1">
-        <v>2582.4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3018.4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>78</v>
+      <c r="B18" s="2">
+        <v>-44.4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-347.5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>2.0</v>
       </c>
-      <c r="B19" s="1">
-        <v>2582.4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2952.9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>79</v>
+      <c r="B19" s="2">
+        <v>-44.8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-404.8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>3.0</v>
       </c>
-      <c r="B20" s="1">
-        <v>2582.4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2893.0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>80</v>
+      <c r="B20" s="2">
+        <v>-23.3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-445.6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>4.0</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
+        <v>-30.0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-503.0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5825.6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>11144.0</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5783.2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>11107.8</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5755.8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>11054.1</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5706.0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>11027.2</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B28" s="1">
         <v>2582.4</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C28" s="1">
+        <v>3018.4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2952.9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2893.0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2582.4</v>
+      </c>
+      <c r="C31" s="1">
         <v>2813.3</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -6936,2259 +7781,3369 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="12">
+      <c r="A1" s="15">
         <v>1.0</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="15">
         <v>2.0</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="15">
         <v>3.0</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="15">
         <v>4.0</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="15">
         <v>5.0</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="15">
         <v>6.0</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="15">
         <v>7.0</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="15">
         <v>8.0</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="15">
         <v>9.0</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="15">
         <v>10.0</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="15">
         <v>11.0</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="15">
         <v>12.0</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="15">
         <v>13.0</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="15">
         <v>14.0</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="15">
         <v>15.0</v>
       </c>
       <c r="P1" s="1">
         <v>16.0</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="16">
         <v>17.0</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="16">
         <v>18.0</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="16">
         <v>19.0</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="16">
         <v>20.0</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="16">
         <v>21.0</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="16">
         <v>22.0</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="16">
         <v>23.0</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="16">
         <v>24.0</v>
       </c>
-      <c r="Y1" s="13">
+      <c r="Y1" s="16">
         <v>25.0</v>
       </c>
-      <c r="Z1" s="13">
+      <c r="Z1" s="16">
         <v>26.0</v>
       </c>
-      <c r="AA1" s="13">
+      <c r="AA1" s="16">
         <v>27.0</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="AB1" s="16">
         <v>28.0</v>
       </c>
-      <c r="AC1" s="13">
+      <c r="AC1" s="16">
         <v>29.0</v>
       </c>
-      <c r="AD1" s="13">
+      <c r="AD1" s="16">
         <v>30.0</v>
       </c>
-      <c r="AE1" s="13"/>
+      <c r="AE1" s="16"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>83</v>
+      <c r="A2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>86</v>
+      <c r="A3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="20"/>
+      <c r="U3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="15">
         <v>1.0</v>
       </c>
-      <c r="B4" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="B4" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
         <v>2.0</v>
       </c>
-      <c r="F4" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12">
+      <c r="F4" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15">
         <v>3.0</v>
       </c>
-      <c r="J4" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12">
+      <c r="J4" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15">
         <v>4.0</v>
       </c>
-      <c r="N4" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="Q4" s="18">
+      <c r="N4" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="Q4" s="21">
         <v>1.0</v>
       </c>
-      <c r="R4" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="S4" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="18">
+      <c r="R4" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="S4" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21">
         <v>2.0</v>
       </c>
-      <c r="V4" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="W4" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="18">
+      <c r="V4" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="W4" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="21">
         <v>3.0</v>
       </c>
-      <c r="Z4" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="18">
+      <c r="Z4" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="21">
         <v>4.0</v>
       </c>
-      <c r="AD4" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AE4" s="18">
+      <c r="AD4" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AE4" s="21">
         <v>-1.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="15">
         <v>2.0</v>
       </c>
-      <c r="B5" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="C5" s="15">
         <v>200.0</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
         <v>3.0</v>
       </c>
-      <c r="F5" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="G5" s="15">
         <v>200.0</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
         <v>4.0</v>
       </c>
-      <c r="J5" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="K5" s="15">
         <v>200.0</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12">
+      <c r="L5" s="15"/>
+      <c r="M5" s="15">
         <v>5.0</v>
       </c>
-      <c r="N5" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="O5" s="12">
+      <c r="N5" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="O5" s="15">
         <v>200.0</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="21">
         <v>2.0</v>
       </c>
-      <c r="R5" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="S5" s="18">
+      <c r="R5" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="S5" s="21">
         <v>200.0</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18">
+      <c r="T5" s="20"/>
+      <c r="U5" s="21">
         <v>3.0</v>
       </c>
-      <c r="V5" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="W5" s="18">
+      <c r="V5" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="W5" s="21">
         <v>200.0</v>
       </c>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="18">
+      <c r="X5" s="20"/>
+      <c r="Y5" s="21">
         <v>4.0</v>
       </c>
-      <c r="Z5" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AA5" s="18">
+      <c r="Z5" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AA5" s="21">
         <v>200.0</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="18">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="21">
         <v>5.0</v>
       </c>
-      <c r="AD5" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AE5" s="18">
+      <c r="AD5" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AE5" s="21">
         <v>200.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="15">
         <v>3.0</v>
       </c>
-      <c r="B6" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="B6" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
         <v>4.0</v>
       </c>
-      <c r="F6" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12">
+      <c r="F6" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
         <v>5.0</v>
       </c>
-      <c r="J6" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12">
+      <c r="J6" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15">
         <v>6.0</v>
       </c>
-      <c r="N6" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="O6" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="Q6" s="18">
+      <c r="N6" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="Q6" s="21">
         <v>3.0</v>
       </c>
-      <c r="R6" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="S6" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="18">
+      <c r="R6" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="S6" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21">
         <v>4.0</v>
       </c>
-      <c r="V6" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="W6" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="18">
+      <c r="V6" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="W6" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="21">
         <v>5.0</v>
       </c>
-      <c r="Z6" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="18">
+      <c r="Z6" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="21">
         <v>6.0</v>
       </c>
-      <c r="AD6" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AE6" s="18">
+      <c r="AD6" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AE6" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="15">
         <v>4.0</v>
       </c>
-      <c r="B7" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="C7" s="15">
         <v>50.0</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
         <v>5.0</v>
       </c>
-      <c r="F7" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="G7" s="15">
         <v>50.0</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
         <v>6.0</v>
       </c>
-      <c r="J7" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="J7" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="K7" s="15">
         <v>50.0</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15">
         <v>7.0</v>
       </c>
-      <c r="N7" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="O7" s="12">
+      <c r="N7" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="O7" s="15">
         <v>50.0</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="21">
         <v>4.0</v>
       </c>
-      <c r="R7" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="S7" s="18">
+      <c r="R7" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="S7" s="21">
         <v>50.0</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="18">
+      <c r="T7" s="20"/>
+      <c r="U7" s="21">
         <v>5.0</v>
       </c>
-      <c r="V7" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="W7" s="18">
+      <c r="V7" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="W7" s="21">
         <v>50.0</v>
       </c>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="18">
+      <c r="X7" s="20"/>
+      <c r="Y7" s="21">
         <v>6.0</v>
       </c>
-      <c r="Z7" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AA7" s="18">
+      <c r="Z7" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AA7" s="21">
         <v>50.0</v>
       </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="18">
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="21">
         <v>7.0</v>
       </c>
-      <c r="AD7" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AE7" s="18">
+      <c r="AD7" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AE7" s="21">
         <v>50.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="15">
         <v>5.0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="15">
         <v>-2.0</v>
       </c>
-      <c r="C8" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="C8" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
         <v>6.0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="15">
         <v>-2.0</v>
       </c>
-      <c r="G8" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12">
+      <c r="G8" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
         <v>7.0</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="15">
         <v>-2.0</v>
       </c>
-      <c r="K8" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12">
+      <c r="K8" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15">
         <v>8.0</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="15">
         <v>-2.0</v>
       </c>
-      <c r="O8" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="Q8" s="18">
+      <c r="O8" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="Q8" s="21">
         <v>5.0</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="21">
         <v>-2.0</v>
       </c>
-      <c r="S8" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18">
+      <c r="S8" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21">
         <v>6.0</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="21">
         <v>-2.0</v>
       </c>
-      <c r="W8" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="18">
+      <c r="W8" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="21">
         <v>7.0</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="21">
         <v>-2.0</v>
       </c>
-      <c r="AA8" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="18">
+      <c r="AA8" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="21">
         <v>8.0</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="21">
         <v>-2.0</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AE8" s="21">
         <v>-1.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="15">
         <v>6.0</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="15">
         <v>-2.0</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="15">
         <v>200.0</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
         <v>7.0</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="15">
         <v>-2.0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="15">
         <v>200.0</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15">
         <v>8.0</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="15">
         <v>-2.0</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="15">
         <v>200.0</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15">
         <v>9.0</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="15">
         <v>-2.0</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="15">
         <v>200.0</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="21">
         <v>6.0</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="21">
         <v>-2.0</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="21">
         <v>200.0</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18">
+      <c r="T9" s="20"/>
+      <c r="U9" s="21">
         <v>7.0</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="21">
         <v>-2.0</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="21">
         <v>200.0</v>
       </c>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="18">
+      <c r="X9" s="20"/>
+      <c r="Y9" s="21">
         <v>8.0</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="21">
         <v>-2.0</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA9" s="21">
         <v>200.0</v>
       </c>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="18">
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21">
         <v>9.0</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="21">
         <v>-2.0</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE9" s="21">
         <v>200.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="15">
         <v>7.0</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="15">
         <v>-2.0</v>
       </c>
-      <c r="C10" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="C10" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15">
         <v>8.0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="15">
         <v>-2.0</v>
       </c>
-      <c r="G10" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12">
+      <c r="G10" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
         <v>9.0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="15">
         <v>-2.0</v>
       </c>
-      <c r="K10" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12">
+      <c r="K10" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15">
         <v>10.0</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="15">
         <v>-2.0</v>
       </c>
-      <c r="O10" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="Q10" s="18">
+      <c r="O10" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="Q10" s="21">
         <v>7.0</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="21">
         <v>-2.0</v>
       </c>
-      <c r="S10" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18">
+      <c r="S10" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21">
         <v>8.0</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="21">
         <v>-2.0</v>
       </c>
-      <c r="W10" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="18">
+      <c r="W10" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="21">
         <v>9.0</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="21">
         <v>-2.0</v>
       </c>
-      <c r="AA10" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="18">
+      <c r="AA10" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="21">
         <v>10.0</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD10" s="21">
         <v>-2.0</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE10" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="15">
         <v>8.0</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="15">
         <v>-2.0</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="15">
         <v>50.0</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <v>9.0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="15">
         <v>-2.0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="15">
         <v>50.0</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
         <v>10.0</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="15">
         <v>-2.0</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="15">
         <v>50.0</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12">
+      <c r="L11" s="15"/>
+      <c r="M11" s="15">
         <v>11.0</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="15">
         <v>-2.0</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="15">
         <v>50.0</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="21">
         <v>8.0</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="21">
         <v>-2.0</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="21">
         <v>50.0</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18">
+      <c r="T11" s="20"/>
+      <c r="U11" s="21">
         <v>9.0</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="21">
         <v>-2.0</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="21">
         <v>50.0</v>
       </c>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="18">
+      <c r="X11" s="20"/>
+      <c r="Y11" s="21">
         <v>10.0</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="Z11" s="21">
         <v>-2.0</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AA11" s="21">
         <v>50.0</v>
       </c>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="18">
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21">
         <v>11.0</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="21">
         <v>-2.0</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AE11" s="21">
         <v>50.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="15">
         <v>9.0</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="15">
         <v>-3.0</v>
       </c>
-      <c r="C12" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="C12" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
         <v>10.0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="15">
         <v>-3.0</v>
       </c>
-      <c r="G12" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12">
+      <c r="G12" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
         <v>11.0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="15">
         <v>-3.0</v>
       </c>
-      <c r="K12" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12">
+      <c r="K12" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15">
         <v>12.0</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="15">
         <v>-3.0</v>
       </c>
-      <c r="O12" s="12">
-        <v>-1.0</v>
-      </c>
-      <c r="Q12" s="18">
+      <c r="O12" s="15">
+        <v>-1.0</v>
+      </c>
+      <c r="Q12" s="21">
         <v>9.0</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="21">
         <v>-3.0</v>
       </c>
-      <c r="S12" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18">
+      <c r="S12" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21">
         <v>10.0</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="21">
         <v>-3.0</v>
       </c>
-      <c r="W12" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="18">
+      <c r="W12" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="21">
         <v>11.0</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="21">
         <v>-3.0</v>
       </c>
-      <c r="AA12" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="18">
+      <c r="AA12" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21">
         <v>12.0</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="21">
         <v>-3.0</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AE12" s="21">
         <v>-1.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="15">
         <v>10.0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="15">
         <v>-3.0</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="15">
         <v>200.0</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
         <v>11.0</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="15">
         <v>-3.0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="15">
         <v>200.0</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
         <v>12.0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="15">
         <v>-3.0</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="15">
         <v>200.0</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12">
+      <c r="L13" s="15"/>
+      <c r="M13" s="15">
         <v>13.0</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="15">
         <v>-3.0</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="15">
         <v>200.0</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="21">
         <v>10.0</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="21">
         <v>-3.0</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="21">
         <v>200.0</v>
       </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18">
+      <c r="T13" s="20"/>
+      <c r="U13" s="21">
         <v>11.0</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="21">
         <v>-3.0</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="21">
         <v>200.0</v>
       </c>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="18">
+      <c r="X13" s="20"/>
+      <c r="Y13" s="21">
         <v>12.0</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="21">
         <v>-3.0</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AA13" s="21">
         <v>200.0</v>
       </c>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="18">
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21">
         <v>13.0</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD13" s="21">
         <v>-3.0</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AE13" s="21">
         <v>200.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="15">
         <v>11.0</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="15">
         <v>-3.0</v>
       </c>
-      <c r="C14" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
+      <c r="C14" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
         <v>12.0</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="15">
         <v>-3.0</v>
       </c>
-      <c r="G14" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
+      <c r="G14" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15">
         <v>13.0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="15">
         <v>-3.0</v>
       </c>
-      <c r="K14" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12">
+      <c r="K14" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15">
         <v>14.0</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="15">
         <v>-3.0</v>
       </c>
-      <c r="O14" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="Q14" s="18">
+      <c r="O14" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="Q14" s="21">
         <v>11.0</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="21">
         <v>-3.0</v>
       </c>
-      <c r="S14" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18">
+      <c r="S14" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21">
         <v>12.0</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="21">
         <v>-3.0</v>
       </c>
-      <c r="W14" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="18">
+      <c r="W14" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="21">
         <v>13.0</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="21">
         <v>-3.0</v>
       </c>
-      <c r="AA14" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="18">
+      <c r="AA14" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="21">
         <v>14.0</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="21">
         <v>-3.0</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AE14" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="15">
         <v>12.0</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="15">
         <v>-3.0</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="15">
         <v>50.0</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
         <v>13.0</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="15">
         <v>-3.0</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="15">
         <v>50.0</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
         <v>14.0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="15">
         <v>-3.0</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="15">
         <v>50.0</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12">
+      <c r="L15" s="15"/>
+      <c r="M15" s="15">
         <v>15.0</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="15">
         <v>-3.0</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="15">
         <v>50.0</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="21">
         <v>12.0</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="21">
         <v>-3.0</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="21">
         <v>50.0</v>
       </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18">
+      <c r="T15" s="20"/>
+      <c r="U15" s="21">
         <v>13.0</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="21">
         <v>-3.0</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="21">
         <v>50.0</v>
       </c>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="18">
+      <c r="X15" s="20"/>
+      <c r="Y15" s="21">
         <v>14.0</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="Z15" s="21">
         <v>-3.0</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AA15" s="21">
         <v>50.0</v>
       </c>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="18">
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="21">
         <v>15.0</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="21">
         <v>-3.0</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AE15" s="21">
         <v>50.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>87</v>
+      <c r="A18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="V19" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="W19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z19" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD19" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE19" s="21" t="s">
-        <v>86</v>
+      <c r="A19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA19" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE19" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="18">
+      <c r="A20" s="21">
         <v>1.0</v>
       </c>
-      <c r="B20" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18">
+      <c r="B20" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="C20" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21">
         <v>2.0</v>
       </c>
-      <c r="F20" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18">
+      <c r="F20" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21">
         <v>3.0</v>
       </c>
-      <c r="J20" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="K20" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18">
+      <c r="J20" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="K20" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21">
         <v>4.0</v>
       </c>
-      <c r="N20" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="O20" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="Q20" s="23">
+      <c r="N20" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="O20" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="Q20" s="26">
         <v>1.0</v>
       </c>
-      <c r="R20" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="S20" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="23">
+      <c r="R20" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="S20" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="26">
         <v>2.0</v>
       </c>
-      <c r="V20" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="W20" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="23">
+      <c r="V20" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="W20" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="26">
         <v>3.0</v>
       </c>
-      <c r="Z20" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AA20" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="23">
+      <c r="Z20" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AA20" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="26">
         <v>4.0</v>
       </c>
-      <c r="AD20" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AE20" s="23">
+      <c r="AD20" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AE20" s="26">
         <v>-1.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="18">
+      <c r="A21" s="21">
         <v>2.0</v>
       </c>
-      <c r="B21" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="C21" s="21">
         <v>200.0</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18">
+      <c r="D21" s="20"/>
+      <c r="E21" s="21">
         <v>3.0</v>
       </c>
-      <c r="F21" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="F21" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="G21" s="21">
         <v>200.0</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18">
+      <c r="H21" s="20"/>
+      <c r="I21" s="21">
         <v>4.0</v>
       </c>
-      <c r="J21" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="K21" s="18">
+      <c r="J21" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="K21" s="21">
         <v>200.0</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18">
+      <c r="L21" s="20"/>
+      <c r="M21" s="21">
         <v>5.0</v>
       </c>
-      <c r="N21" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="O21" s="18">
+      <c r="N21" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="O21" s="21">
         <v>200.0</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="26">
         <v>2.0</v>
       </c>
-      <c r="R21" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="S21" s="23">
+      <c r="R21" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="S21" s="26">
         <v>200.0</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="U21" s="23">
+      <c r="T21" s="25"/>
+      <c r="U21" s="26">
         <v>3.0</v>
       </c>
-      <c r="V21" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="W21" s="23">
+      <c r="V21" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="W21" s="26">
         <v>200.0</v>
       </c>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="23">
+      <c r="X21" s="25"/>
+      <c r="Y21" s="26">
         <v>4.0</v>
       </c>
-      <c r="Z21" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AA21" s="23">
+      <c r="Z21" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AA21" s="26">
         <v>200.0</v>
       </c>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="23">
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="26">
         <v>5.0</v>
       </c>
-      <c r="AD21" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AE21" s="23">
+      <c r="AD21" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AE21" s="26">
         <v>200.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="18">
+      <c r="A22" s="21">
         <v>3.0</v>
       </c>
-      <c r="B22" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="C22" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18">
+      <c r="B22" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21">
         <v>4.0</v>
       </c>
-      <c r="F22" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18">
+      <c r="F22" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="G22" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21">
         <v>5.0</v>
       </c>
-      <c r="J22" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="K22" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18">
+      <c r="J22" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="K22" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21">
         <v>6.0</v>
       </c>
-      <c r="N22" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="O22" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="Q22" s="23">
+      <c r="N22" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="O22" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="Q22" s="26">
         <v>3.0</v>
       </c>
-      <c r="R22" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="S22" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="23">
+      <c r="R22" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="S22" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="26">
         <v>4.0</v>
       </c>
-      <c r="V22" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="W22" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="23">
+      <c r="V22" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="W22" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="26">
         <v>5.0</v>
       </c>
-      <c r="Z22" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AA22" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="23">
+      <c r="Z22" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AA22" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="26">
         <v>6.0</v>
       </c>
-      <c r="AD22" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AE22" s="23">
+      <c r="AD22" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AE22" s="26">
         <v>100.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="18">
+      <c r="A23" s="21">
         <v>4.0</v>
       </c>
-      <c r="B23" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="B23" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="C23" s="21">
         <v>50.0</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18">
+      <c r="D23" s="20"/>
+      <c r="E23" s="21">
         <v>5.0</v>
       </c>
-      <c r="F23" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="F23" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="G23" s="21">
         <v>50.0</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
+      <c r="H23" s="20"/>
+      <c r="I23" s="21">
         <v>6.0</v>
       </c>
-      <c r="J23" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="K23" s="18">
+      <c r="J23" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="K23" s="21">
         <v>50.0</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18">
+      <c r="L23" s="20"/>
+      <c r="M23" s="21">
         <v>7.0</v>
       </c>
-      <c r="N23" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="O23" s="18">
+      <c r="N23" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="O23" s="21">
         <v>50.0</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="26">
         <v>4.0</v>
       </c>
-      <c r="R23" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="S23" s="23">
+      <c r="R23" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="S23" s="26">
         <v>50.0</v>
       </c>
-      <c r="T23" s="22"/>
-      <c r="U23" s="23">
+      <c r="T23" s="25"/>
+      <c r="U23" s="26">
         <v>5.0</v>
       </c>
-      <c r="V23" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="W23" s="23">
+      <c r="V23" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="W23" s="26">
         <v>50.0</v>
       </c>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="23">
+      <c r="X23" s="25"/>
+      <c r="Y23" s="26">
         <v>6.0</v>
       </c>
-      <c r="Z23" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AA23" s="23">
+      <c r="Z23" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AA23" s="26">
         <v>50.0</v>
       </c>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="23">
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="26">
         <v>7.0</v>
       </c>
-      <c r="AD23" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AE23" s="23">
+      <c r="AD23" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AE23" s="26">
         <v>50.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="21">
         <v>5.0</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="21">
         <v>-2.0</v>
       </c>
-      <c r="C24" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18">
+      <c r="C24" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21">
         <v>6.0</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="21">
         <v>-2.0</v>
       </c>
-      <c r="G24" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18">
+      <c r="G24" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21">
         <v>7.0</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="21">
         <v>-2.0</v>
       </c>
-      <c r="K24" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18">
+      <c r="K24" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21">
         <v>8.0</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="21">
         <v>-2.0</v>
       </c>
-      <c r="O24" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="Q24" s="23">
+      <c r="O24" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="Q24" s="26">
         <v>5.0</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="26">
         <v>-2.0</v>
       </c>
-      <c r="S24" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="23">
+      <c r="S24" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="26">
         <v>6.0</v>
       </c>
-      <c r="V24" s="23">
+      <c r="V24" s="26">
         <v>-2.0</v>
       </c>
-      <c r="W24" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="23">
+      <c r="W24" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="26">
         <v>7.0</v>
       </c>
-      <c r="Z24" s="23">
+      <c r="Z24" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AA24" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="23">
+      <c r="AA24" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="26">
         <v>8.0</v>
       </c>
-      <c r="AD24" s="23">
+      <c r="AD24" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AE24" s="23">
+      <c r="AE24" s="26">
         <v>-1.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="18">
+      <c r="A25" s="21">
         <v>6.0</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="21">
         <v>-2.0</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="21">
         <v>200.0</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18">
+      <c r="D25" s="20"/>
+      <c r="E25" s="21">
         <v>7.0</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="21">
         <v>-2.0</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="21">
         <v>200.0</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18">
+      <c r="H25" s="20"/>
+      <c r="I25" s="21">
         <v>8.0</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="21">
         <v>-2.0</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="21">
         <v>200.0</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18">
+      <c r="L25" s="20"/>
+      <c r="M25" s="21">
         <v>9.0</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="21">
         <v>-2.0</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="21">
         <v>200.0</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="26">
         <v>6.0</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="26">
         <v>-2.0</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="26">
         <v>200.0</v>
       </c>
-      <c r="T25" s="22"/>
-      <c r="U25" s="23">
+      <c r="T25" s="25"/>
+      <c r="U25" s="26">
         <v>7.0</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="26">
         <v>-2.0</v>
       </c>
-      <c r="W25" s="23">
+      <c r="W25" s="26">
         <v>200.0</v>
       </c>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="23">
+      <c r="X25" s="25"/>
+      <c r="Y25" s="26">
         <v>8.0</v>
       </c>
-      <c r="Z25" s="23">
+      <c r="Z25" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AA25" s="23">
+      <c r="AA25" s="26">
         <v>200.0</v>
       </c>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="23">
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="26">
         <v>9.0</v>
       </c>
-      <c r="AD25" s="23">
+      <c r="AD25" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AE25" s="23">
+      <c r="AE25" s="26">
         <v>200.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="18">
+      <c r="A26" s="21">
         <v>7.0</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="21">
         <v>-2.0</v>
       </c>
-      <c r="C26" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18">
+      <c r="C26" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21">
         <v>8.0</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="21">
         <v>-2.0</v>
       </c>
-      <c r="G26" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18">
+      <c r="G26" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21">
         <v>9.0</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="21">
         <v>-2.0</v>
       </c>
-      <c r="K26" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18">
+      <c r="K26" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21">
         <v>10.0</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="21">
         <v>-2.0</v>
       </c>
-      <c r="O26" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="Q26" s="23">
+      <c r="O26" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="Q26" s="26">
         <v>7.0</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="26">
         <v>-2.0</v>
       </c>
-      <c r="S26" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="23">
+      <c r="S26" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26">
         <v>8.0</v>
       </c>
-      <c r="V26" s="23">
+      <c r="V26" s="26">
         <v>-2.0</v>
       </c>
-      <c r="W26" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="23">
+      <c r="W26" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="26">
         <v>9.0</v>
       </c>
-      <c r="Z26" s="23">
+      <c r="Z26" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AA26" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="23">
+      <c r="AA26" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="26">
         <v>10.0</v>
       </c>
-      <c r="AD26" s="23">
+      <c r="AD26" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AE26" s="23">
+      <c r="AE26" s="26">
         <v>100.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="18">
+      <c r="A27" s="21">
         <v>8.0</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="21">
         <v>-2.0</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="21">
         <v>50.0</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18">
+      <c r="D27" s="20"/>
+      <c r="E27" s="21">
         <v>9.0</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="21">
         <v>-2.0</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="21">
         <v>50.0</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18">
+      <c r="H27" s="20"/>
+      <c r="I27" s="21">
         <v>10.0</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="21">
         <v>-2.0</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="21">
         <v>50.0</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="18">
+      <c r="L27" s="20"/>
+      <c r="M27" s="21">
         <v>11.0</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="21">
         <v>-2.0</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="21">
         <v>50.0</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="26">
         <v>8.0</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="26">
         <v>-2.0</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="26">
         <v>50.0</v>
       </c>
-      <c r="T27" s="22"/>
-      <c r="U27" s="23">
+      <c r="T27" s="25"/>
+      <c r="U27" s="26">
         <v>9.0</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="26">
         <v>-2.0</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="26">
         <v>50.0</v>
       </c>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="23">
+      <c r="X27" s="25"/>
+      <c r="Y27" s="26">
         <v>10.0</v>
       </c>
-      <c r="Z27" s="23">
+      <c r="Z27" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AA27" s="23">
+      <c r="AA27" s="26">
         <v>50.0</v>
       </c>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="23">
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="26">
         <v>11.0</v>
       </c>
-      <c r="AD27" s="23">
+      <c r="AD27" s="26">
         <v>-2.0</v>
       </c>
-      <c r="AE27" s="23">
+      <c r="AE27" s="26">
         <v>50.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="18">
+      <c r="A28" s="21">
         <v>9.0</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="21">
         <v>-3.0</v>
       </c>
-      <c r="C28" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18">
+      <c r="C28" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21">
         <v>10.0</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="21">
         <v>-3.0</v>
       </c>
-      <c r="G28" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18">
+      <c r="G28" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21">
         <v>11.0</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="21">
         <v>-3.0</v>
       </c>
-      <c r="K28" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18">
+      <c r="K28" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21">
         <v>12.0</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="21">
         <v>-3.0</v>
       </c>
-      <c r="O28" s="18">
-        <v>-1.0</v>
-      </c>
-      <c r="Q28" s="23">
+      <c r="O28" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="Q28" s="26">
         <v>9.0</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="26">
         <v>-3.0</v>
       </c>
-      <c r="S28" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="T28" s="22"/>
-      <c r="U28" s="23">
+      <c r="S28" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="26">
         <v>10.0</v>
       </c>
-      <c r="V28" s="23">
+      <c r="V28" s="26">
         <v>-3.0</v>
       </c>
-      <c r="W28" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="23">
+      <c r="W28" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="26">
         <v>11.0</v>
       </c>
-      <c r="Z28" s="23">
+      <c r="Z28" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AA28" s="23">
-        <v>-1.0</v>
-      </c>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="23">
+      <c r="AA28" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="26">
         <v>12.0</v>
       </c>
-      <c r="AD28" s="23">
+      <c r="AD28" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AE28" s="23">
+      <c r="AE28" s="26">
         <v>-1.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="18">
+      <c r="A29" s="21">
         <v>10.0</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="21">
         <v>-3.0</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="21">
         <v>200.0</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18">
+      <c r="D29" s="20"/>
+      <c r="E29" s="21">
         <v>11.0</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="21">
         <v>-3.0</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="21">
         <v>200.0</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18">
+      <c r="H29" s="20"/>
+      <c r="I29" s="21">
         <v>12.0</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="21">
         <v>-3.0</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="21">
         <v>200.0</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="18">
+      <c r="L29" s="20"/>
+      <c r="M29" s="21">
         <v>13.0</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="21">
         <v>-3.0</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="21">
         <v>200.0</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="26">
         <v>10.0</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="26">
         <v>-3.0</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="26">
         <v>200.0</v>
       </c>
-      <c r="T29" s="22"/>
-      <c r="U29" s="23">
+      <c r="T29" s="25"/>
+      <c r="U29" s="26">
         <v>11.0</v>
       </c>
-      <c r="V29" s="23">
+      <c r="V29" s="26">
         <v>-3.0</v>
       </c>
-      <c r="W29" s="23">
+      <c r="W29" s="26">
         <v>200.0</v>
       </c>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="23">
+      <c r="X29" s="25"/>
+      <c r="Y29" s="26">
         <v>12.0</v>
       </c>
-      <c r="Z29" s="23">
+      <c r="Z29" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AA29" s="23">
+      <c r="AA29" s="26">
         <v>200.0</v>
       </c>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="23">
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="26">
         <v>13.0</v>
       </c>
-      <c r="AD29" s="23">
+      <c r="AD29" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AE29" s="23">
+      <c r="AE29" s="26">
         <v>200.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="18">
+      <c r="A30" s="21">
         <v>11.0</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="21">
         <v>-3.0</v>
       </c>
-      <c r="C30" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18">
+      <c r="C30" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21">
         <v>12.0</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="21">
         <v>-3.0</v>
       </c>
-      <c r="G30" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18">
+      <c r="G30" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21">
         <v>13.0</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="21">
         <v>-3.0</v>
       </c>
-      <c r="K30" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="18">
+      <c r="K30" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21">
         <v>14.0</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="21">
         <v>-3.0</v>
       </c>
-      <c r="O30" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="Q30" s="23">
+      <c r="O30" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="Q30" s="26">
         <v>11.0</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="26">
         <v>-3.0</v>
       </c>
-      <c r="S30" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="T30" s="22"/>
-      <c r="U30" s="23">
+      <c r="S30" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="T30" s="25"/>
+      <c r="U30" s="26">
         <v>12.0</v>
       </c>
-      <c r="V30" s="23">
+      <c r="V30" s="26">
         <v>-3.0</v>
       </c>
-      <c r="W30" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="23">
+      <c r="W30" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="26">
         <v>13.0</v>
       </c>
-      <c r="Z30" s="23">
+      <c r="Z30" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AA30" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="23">
+      <c r="AA30" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="26">
         <v>14.0</v>
       </c>
-      <c r="AD30" s="23">
+      <c r="AD30" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AE30" s="23">
+      <c r="AE30" s="26">
         <v>100.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="18">
+      <c r="A31" s="21">
         <v>12.0</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="21">
         <v>-3.0</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="21">
         <v>50.0</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18">
+      <c r="D31" s="20"/>
+      <c r="E31" s="21">
         <v>13.0</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="21">
         <v>-3.0</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="21">
         <v>50.0</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18">
+      <c r="H31" s="20"/>
+      <c r="I31" s="21">
         <v>14.0</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="21">
         <v>-3.0</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="21">
         <v>50.0</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="18">
+      <c r="L31" s="20"/>
+      <c r="M31" s="21">
         <v>15.0</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="21">
         <v>-3.0</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="21">
         <v>50.0</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="26">
         <v>12.0</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="26">
         <v>-3.0</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S31" s="26">
         <v>50.0</v>
       </c>
-      <c r="T31" s="22"/>
-      <c r="U31" s="23">
+      <c r="T31" s="25"/>
+      <c r="U31" s="26">
         <v>13.0</v>
       </c>
-      <c r="V31" s="23">
+      <c r="V31" s="26">
         <v>-3.0</v>
       </c>
-      <c r="W31" s="23">
+      <c r="W31" s="26">
         <v>50.0</v>
       </c>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="23">
+      <c r="X31" s="25"/>
+      <c r="Y31" s="26">
         <v>14.0</v>
       </c>
-      <c r="Z31" s="23">
+      <c r="Z31" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AA31" s="23">
+      <c r="AA31" s="26">
         <v>50.0</v>
       </c>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="23">
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="26">
         <v>15.0</v>
       </c>
-      <c r="AD31" s="23">
+      <c r="AD31" s="26">
         <v>-3.0</v>
       </c>
-      <c r="AE31" s="23">
+      <c r="AE31" s="26">
         <v>50.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="B33" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="C33" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="D33" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="E33" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="F33" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="G33" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="H33" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="I33" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="J33" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="K33" s="27">
+        <v>11.0</v>
+      </c>
+      <c r="L33" s="27">
+        <v>12.0</v>
+      </c>
+      <c r="M33" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="N33" s="27">
+        <v>14.0</v>
+      </c>
+      <c r="O33" s="27">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="B36" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="C36" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="G36" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="J36" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="K36" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="N36" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="O36" s="27">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="B37" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="C37" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="F37" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="G37" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="J37" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="K37" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="N37" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="O37" s="27">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="B38" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="C38" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="F38" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="G38" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="J38" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="K38" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="N38" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="O38" s="27">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="B39" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="C39" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="F39" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="G39" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="J39" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="K39" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="N39" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="O39" s="27">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="B40" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="C40" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="F40" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="G40" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="J40" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="K40" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="N40" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="O40" s="27">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="B41" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="C41" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="F41" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="G41" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="J41" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="K41" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="N41" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="O41" s="27">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="B42" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="C42" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="F42" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="G42" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="J42" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="K42" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="N42" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="O42" s="27">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="B43" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="C43" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="F43" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="G43" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="J43" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="K43" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27">
+        <v>11.0</v>
+      </c>
+      <c r="N43" s="27">
+        <v>-2.0</v>
+      </c>
+      <c r="O43" s="27">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="B44" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="C44" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="F44" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="G44" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27">
+        <v>11.0</v>
+      </c>
+      <c r="J44" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="K44" s="27">
+        <v>-1.0</v>
+      </c>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27">
+        <v>12.0</v>
+      </c>
+      <c r="N44" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="O44" s="27">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="B45" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="C45" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27">
+        <v>11.0</v>
+      </c>
+      <c r="F45" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="G45" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27">
+        <v>12.0</v>
+      </c>
+      <c r="J45" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="K45" s="27">
+        <v>200.0</v>
+      </c>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="N45" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="O45" s="27">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="27">
+        <v>11.0</v>
+      </c>
+      <c r="B46" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="C46" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27">
+        <v>12.0</v>
+      </c>
+      <c r="F46" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="G46" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="J46" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="K46" s="27">
+        <v>100.0</v>
+      </c>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27">
+        <v>14.0</v>
+      </c>
+      <c r="N46" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="O46" s="27">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="27">
+        <v>12.0</v>
+      </c>
+      <c r="B47" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="C47" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="F47" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="G47" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27">
+        <v>14.0</v>
+      </c>
+      <c r="J47" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="K47" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27">
+        <v>15.0</v>
+      </c>
+      <c r="N47" s="27">
+        <v>-3.0</v>
+      </c>
+      <c r="O47" s="27">
+        <v>50.0</v>
+      </c>
+    </row>
     <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L51" s="25"/>
+      <c r="M51" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="N51" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="O51" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B52" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="C52" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="F52" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="G52" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="J52" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="K52" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="L52" s="25"/>
+      <c r="M52" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="N52" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="O52" s="26">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="B53" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="C53" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="F53" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="G53" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="J53" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="K53" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="L53" s="25"/>
+      <c r="M53" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="N53" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="O53" s="26">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="B54" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="C54" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="F54" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="G54" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="J54" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="K54" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="L54" s="25"/>
+      <c r="M54" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="N54" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="O54" s="26">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="B55" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="C55" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="F55" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="G55" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="J55" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="K55" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="L55" s="25"/>
+      <c r="M55" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="N55" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="O55" s="26">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="B56" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="C56" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="F56" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="G56" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="J56" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="K56" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="L56" s="25"/>
+      <c r="M56" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="N56" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O56" s="26">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="B57" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="C57" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="F57" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="G57" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="J57" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="K57" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="N57" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O57" s="26">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="B58" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="C58" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="F58" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="G58" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="J58" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="K58" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="L58" s="25"/>
+      <c r="M58" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="N58" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O58" s="26">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="B59" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="C59" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="F59" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="G59" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="J59" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="K59" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="L59" s="25"/>
+      <c r="M59" s="26">
+        <v>11.0</v>
+      </c>
+      <c r="N59" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="O59" s="26">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="26">
+        <v>9.0</v>
+      </c>
+      <c r="B60" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="C60" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="F60" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="G60" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26">
+        <v>11.0</v>
+      </c>
+      <c r="J60" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="K60" s="26">
+        <v>-1.0</v>
+      </c>
+      <c r="L60" s="25"/>
+      <c r="M60" s="26">
+        <v>12.0</v>
+      </c>
+      <c r="N60" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="O60" s="26">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="B61" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="C61" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26">
+        <v>11.0</v>
+      </c>
+      <c r="F61" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="G61" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26">
+        <v>12.0</v>
+      </c>
+      <c r="J61" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="K61" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="L61" s="25"/>
+      <c r="M61" s="26">
+        <v>13.0</v>
+      </c>
+      <c r="N61" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="O61" s="26">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="26">
+        <v>11.0</v>
+      </c>
+      <c r="B62" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="C62" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26">
+        <v>12.0</v>
+      </c>
+      <c r="F62" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="G62" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="26">
+        <v>13.0</v>
+      </c>
+      <c r="J62" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="K62" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="L62" s="25"/>
+      <c r="M62" s="26">
+        <v>14.0</v>
+      </c>
+      <c r="N62" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="O62" s="26">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="26">
+        <v>12.0</v>
+      </c>
+      <c r="B63" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="C63" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26">
+        <v>13.0</v>
+      </c>
+      <c r="F63" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="G63" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26">
+        <v>14.0</v>
+      </c>
+      <c r="J63" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="K63" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="L63" s="25"/>
+      <c r="M63" s="26">
+        <v>15.0</v>
+      </c>
+      <c r="N63" s="26">
+        <v>-3.0</v>
+      </c>
+      <c r="O63" s="26">
+        <v>50.0</v>
+      </c>
+    </row>
     <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -10127,11 +12082,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="Q2:AE2"/>
+    <mergeCell ref="A18:O18"/>
     <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="A50:O50"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
